--- a/Extended_Model/Results_slump.xlsx
+++ b/Extended_Model/Results_slump.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manfrede\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manfrede\MATLAB_GIT\trunk\Extended_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A872F3-5879-4495-8C30-206326EB8509}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E2381-C34C-43C6-85C6-9B1F223ABF03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="0" windowWidth="14955" windowHeight="14280" activeTab="3" xr2:uid="{3A31E30E-C155-4713-BBA4-07880A7574EB}"/>
+    <workbookView xWindow="14085" yWindow="1590" windowWidth="14955" windowHeight="14280" xr2:uid="{3A31E30E-C155-4713-BBA4-07880A7574EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 and 2" sheetId="5" r:id="rId1"/>
     <sheet name="Table 3" sheetId="6" r:id="rId2"/>
     <sheet name="Table 4" sheetId="7" r:id="rId3"/>
     <sheet name="Table 5" sheetId="8" r:id="rId4"/>
+    <sheet name="IBGE" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="49">
   <si>
     <t>Share of establishments</t>
   </si>
@@ -115,13 +116,79 @@
   </si>
   <si>
     <t>Alternative Model</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets</t>
+  </si>
+  <si>
+    <t>Tabela 1839 - Dados gerais das empresas industriais com 1 ou mais pessoas ocupadas, segundo as indústrias extrativas e de transformação e as faixas de pessoal ocupado (CNAE 2.0)</t>
+  </si>
+  <si>
+    <t>Variável - Número de empresas - percentual do total geral</t>
+  </si>
+  <si>
+    <t>Tipo de indústria - Total</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Faixas de pessoal ocupado</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Até 4</t>
+  </si>
+  <si>
+    <t>5 a 29</t>
+  </si>
+  <si>
+    <t>30 a 49</t>
+  </si>
+  <si>
+    <t>50 a 99</t>
+  </si>
+  <si>
+    <t>100 a 249</t>
+  </si>
+  <si>
+    <t>250 a 499</t>
+  </si>
+  <si>
+    <t>500 ou mais</t>
+  </si>
+  <si>
+    <t>Fonte: IBGE - Pesquisa Industrial Anual - Empresa</t>
+  </si>
+  <si>
+    <t>Variável - Pessoal ocupado em 31/12 - percentual do total geral</t>
+  </si>
+  <si>
+    <t>Variável - Valor bruto da produção industrial - percentual do total geral</t>
+  </si>
+  <si>
+    <t>Establishments</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,16 +211,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E98C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF3F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,12 +295,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -204,17 +324,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,12 +353,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -273,14 +381,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41763950-9EDA-4279-9F13-77D4025E5D2D}">
   <dimension ref="B4:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,23 +743,23 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="24">
-        <v>2009</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="20">
+        <v>2010</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -635,63 +767,72 @@
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19">
-        <v>41.69</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1.39</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3.45</v>
+      <c r="C6" s="36">
+        <f>IBGE!B9</f>
+        <v>41.03</v>
+      </c>
+      <c r="D6" s="36">
+        <f>IBGE!J9</f>
+        <v>1.35</v>
+      </c>
+      <c r="E6" s="36">
+        <f>IBGE!F9</f>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19">
-        <v>51.559999999999995</v>
-      </c>
-      <c r="D7" s="19">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E7" s="19">
-        <v>27.650000000000002</v>
+      <c r="C7" s="36">
+        <f>SUM(IBGE!B10:B11)</f>
+        <v>51.589999999999996</v>
+      </c>
+      <c r="D7" s="36">
+        <f>SUM(IBGE!J10:J11)</f>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E7" s="36">
+        <f>SUM(IBGE!F10:F11)</f>
+        <v>26.42</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20">
-        <v>6.75</v>
-      </c>
-      <c r="D8" s="20">
-        <v>89.91</v>
-      </c>
-      <c r="E8" s="20">
-        <v>68.900000000000006</v>
+      <c r="C8" s="37">
+        <f>SUM(IBGE!B12:B15)</f>
+        <v>7.38</v>
+      </c>
+      <c r="D8" s="37">
+        <f>SUM(IBGE!J12:J15)</f>
+        <v>90.199999999999989</v>
+      </c>
+      <c r="E8" s="37">
+        <f>SUM(IBGE!F12:F15)</f>
+        <v>70.240000000000009</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -699,63 +840,63 @@
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21">
-        <v>40.593000000000004</v>
-      </c>
-      <c r="D11" s="21">
-        <v>4.45</v>
-      </c>
-      <c r="E11" s="21">
-        <v>5.1529999999999996</v>
+      <c r="C11" s="17">
+        <v>41.268000000000001</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>5.984</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21">
-        <v>47.686</v>
-      </c>
-      <c r="D12" s="21">
-        <v>37.826999999999998</v>
-      </c>
-      <c r="E12" s="21">
-        <v>40.554000000000002</v>
+      <c r="C12" s="17">
+        <v>47.692</v>
+      </c>
+      <c r="D12" s="17">
+        <v>44.177</v>
+      </c>
+      <c r="E12" s="17">
+        <v>46.697000000000003</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22">
-        <v>11.722</v>
-      </c>
-      <c r="D13" s="22">
-        <v>57.722999999999999</v>
-      </c>
-      <c r="E13" s="22">
-        <v>54.292999999999999</v>
+      <c r="C13" s="18">
+        <v>11.04</v>
+      </c>
+      <c r="D13" s="18">
+        <v>50.411000000000001</v>
+      </c>
+      <c r="E13" s="18">
+        <v>47.319000000000003</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="24">
-        <v>2016</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="C16" s="20">
+        <v>2015</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -763,63 +904,72 @@
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="19">
-        <v>44.88</v>
-      </c>
-      <c r="D18" s="19">
-        <v>1.34</v>
-      </c>
-      <c r="E18" s="19">
-        <v>3.88</v>
+      <c r="C18" s="36">
+        <f>IBGE!C9</f>
+        <v>43.94</v>
+      </c>
+      <c r="D18" s="36">
+        <f>IBGE!K9</f>
+        <v>1.52</v>
+      </c>
+      <c r="E18" s="36">
+        <f>IBGE!G9</f>
+        <v>3.77</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="19">
-        <v>49.35</v>
-      </c>
-      <c r="D19" s="19">
-        <v>9.17</v>
-      </c>
-      <c r="E19" s="19">
-        <v>27.41</v>
+      <c r="C19" s="36">
+        <f>SUM(IBGE!C10:C11)</f>
+        <v>49.980000000000004</v>
+      </c>
+      <c r="D19" s="36">
+        <f>SUM(IBGE!K10:K11)</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="E19" s="36">
+        <f>SUM(IBGE!G10:G11)</f>
+        <v>26.96</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="20">
-        <v>5.78</v>
-      </c>
-      <c r="D20" s="20">
-        <v>89.5</v>
-      </c>
-      <c r="E20" s="20">
-        <v>68.710000000000008</v>
+      <c r="C20" s="37">
+        <f>SUM(IBGE!C12:C15)</f>
+        <v>6.08</v>
+      </c>
+      <c r="D20" s="37">
+        <f>SUM(IBGE!K12:K15)</f>
+        <v>89.94</v>
+      </c>
+      <c r="E20" s="37">
+        <f>SUM(IBGE!G12:G15)</f>
+        <v>69.27</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -827,55 +977,56 @@
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="21">
-        <v>44.61</v>
-      </c>
-      <c r="D23" s="21">
-        <v>4.2859999999999996</v>
-      </c>
-      <c r="E23" s="21">
-        <v>4.8010000000000002</v>
+      <c r="C23" s="17">
+        <v>44.81</v>
+      </c>
+      <c r="D23" s="17">
+        <v>4.8739999999999997</v>
+      </c>
+      <c r="E23" s="17">
+        <v>5.2450000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="21">
-        <v>45.942</v>
-      </c>
-      <c r="D24" s="21">
-        <v>42.53</v>
-      </c>
-      <c r="E24" s="21">
-        <v>45.875</v>
+      <c r="C24" s="17">
+        <v>42.887999999999998</v>
+      </c>
+      <c r="D24" s="17">
+        <v>42.137999999999998</v>
+      </c>
+      <c r="E24" s="17">
+        <v>45.055</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="22">
-        <v>9.4480000000000004</v>
-      </c>
-      <c r="D25" s="22">
-        <v>53.183999999999997</v>
-      </c>
-      <c r="E25" s="22">
-        <v>49.323999999999998</v>
+      <c r="C25" s="18">
+        <v>12.303000000000001</v>
+      </c>
+      <c r="D25" s="18">
+        <v>52.988</v>
+      </c>
+      <c r="E25" s="18">
+        <v>49.701000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4990B-AFDD-45AD-8D8E-B2F928A96B1F}">
-  <dimension ref="B2:E28"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,168 +1034,200 @@
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <f>(E19/E13)*100</f>
-        <v>95.71984435797664</v>
-      </c>
-      <c r="D3" s="18">
+        <v>95.77981651376146</v>
+      </c>
+      <c r="D3" s="16">
         <f>(E25/E13)*100</f>
-        <v>106.22568093385215</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>107.52293577981651</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
-        <f t="shared" ref="C4:C7" si="0">(E20/E14)*100</f>
-        <v>102.42038216560509</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="C4" s="14">
+        <f t="shared" ref="C4:C6" si="0">(E20/E14)*100</f>
+        <v>102.58662762323083</v>
+      </c>
+      <c r="D4" s="14">
         <f t="shared" ref="D4:D6" si="1">(E26/E14)*100</f>
-        <v>102.92993630573248</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>112.50203351228241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>102.36006051437217</v>
-      </c>
-      <c r="D5" s="16">
+        <v>102.64155878122139</v>
+      </c>
+      <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>102.84417549167928</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>112.51471165162808</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>114.71970652298521</v>
-      </c>
-      <c r="D6" s="16">
+        <v>114.60549513678413</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="1"/>
-        <v>89.142496847414876</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>96.86812860284067</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="C7" s="28">
+        <f>(I8/H8)*100</f>
+        <v>143.06531355711684</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J7">
+        <v>-107.129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>3.843</v>
+      </c>
+      <c r="I8">
+        <v>5.4980000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0.505</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.51400000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="16">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16">
-        <v>4.6550000000000002</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.84</v>
-      </c>
-      <c r="E14" s="16">
-        <v>5.4950000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="14">
+        <v>10.456</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="E14" s="14">
+        <v>12.294</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="16">
-        <v>2.7989999999999999</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E15" s="16">
-        <v>3.3050000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.147</v>
+      </c>
+      <c r="E15" s="14">
+        <v>7.6470000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="17">
-        <v>78.938999999999993</v>
-      </c>
-      <c r="D16" s="17">
-        <v>8.2910000000000004</v>
-      </c>
-      <c r="E16" s="17">
-        <v>87.23</v>
+      <c r="C16" s="15">
+        <v>183.16499999999999</v>
+      </c>
+      <c r="D16" s="15">
+        <v>18.757999999999999</v>
+      </c>
+      <c r="E16" s="15">
+        <v>201.92400000000001</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1052,75 +1235,75 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="18">
-        <v>0.48</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.49199999999999999</v>
+      <c r="C19" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.503</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16">
-        <v>5.1669999999999998</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="E20" s="16">
-        <v>5.6280000000000001</v>
+      <c r="C20" s="14">
+        <v>11.574999999999999</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1.038</v>
+      </c>
+      <c r="E20" s="14">
+        <v>12.612</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="16">
-        <v>3.1040000000000001</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="E21" s="16">
-        <v>3.383</v>
+      <c r="C21" s="14">
+        <v>7.1989999999999998</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="E21" s="14">
+        <v>7.8490000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="17">
-        <v>95.622</v>
-      </c>
-      <c r="D22" s="17">
-        <v>4.4480000000000004</v>
-      </c>
-      <c r="E22" s="17">
-        <v>100.07</v>
+      <c r="C22" s="15">
+        <v>220.98599999999999</v>
+      </c>
+      <c r="D22" s="15">
+        <v>10.429</v>
+      </c>
+      <c r="E22" s="15">
+        <v>231.416</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1128,56 +1311,56 @@
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <v>0</v>
       </c>
-      <c r="D25" s="18">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0.54600000000000004</v>
+      <c r="D25" s="16">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>0</v>
       </c>
-      <c r="D26" s="16">
-        <v>5.6559999999999997</v>
-      </c>
-      <c r="E26" s="16">
-        <v>5.6559999999999997</v>
+      <c r="D26" s="14">
+        <v>13.831</v>
+      </c>
+      <c r="E26" s="14">
+        <v>13.831</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="14">
         <v>0</v>
       </c>
-      <c r="D27" s="16">
-        <v>3.399</v>
-      </c>
-      <c r="E27" s="16">
-        <v>3.399</v>
+      <c r="D27" s="14">
+        <v>8.6039999999999992</v>
+      </c>
+      <c r="E27" s="14">
+        <v>8.6039999999999992</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="15">
         <v>0</v>
       </c>
-      <c r="D28" s="17">
-        <v>77.759</v>
-      </c>
-      <c r="E28" s="17">
-        <v>77.759</v>
+      <c r="D28" s="15">
+        <v>195.6</v>
+      </c>
+      <c r="E28" s="15">
+        <v>195.6</v>
       </c>
     </row>
   </sheetData>
@@ -1194,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331CC5A-D4E1-4F50-B3DB-DD02D3A3C9B7}">
   <dimension ref="B3:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,22 +1389,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1229,87 +1412,87 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <f>(C27/C21)*100</f>
-        <v>97.759674134419555</v>
-      </c>
-      <c r="D5" s="18">
+        <v>97.701149425287355</v>
+      </c>
+      <c r="D5" s="16">
         <f t="shared" ref="D5:E5" si="0">(D27/D21)*100</f>
-        <v>94.257425742574256</v>
-      </c>
-      <c r="E5" s="18">
+        <v>94.371482176360217</v>
+      </c>
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
-        <v>95.71984435797664</v>
+        <v>95.77981651376146</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <f t="shared" ref="C6:E6" si="1">(C28/C22)*100</f>
-        <v>110.99892588614392</v>
-      </c>
-      <c r="D6" s="16">
+        <v>110.70198928844684</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="1"/>
-        <v>54.880952380952387</v>
-      </c>
-      <c r="E6" s="16">
+        <v>56.474428726877036</v>
+      </c>
+      <c r="E6" s="14">
         <f t="shared" si="1"/>
-        <v>102.42038216560509</v>
+        <v>102.58662762323083</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <f t="shared" ref="C7:E7" si="2">(C29/C23)*100</f>
-        <v>110.89674883887103</v>
-      </c>
-      <c r="D7" s="16">
+        <v>110.75384615384615</v>
+      </c>
+      <c r="D7" s="14">
         <f t="shared" si="2"/>
-        <v>54.940711462450601</v>
-      </c>
-      <c r="E7" s="16">
+        <v>56.66957279860506</v>
+      </c>
+      <c r="E7" s="14">
         <f t="shared" si="2"/>
-        <v>102.36006051437217</v>
+        <v>102.64155878122139</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <f t="shared" ref="C8:E8" si="3">(C30/C24)*100</f>
-        <v>121.13404020826208</v>
-      </c>
-      <c r="D8" s="17">
+        <v>120.64859552862173</v>
+      </c>
+      <c r="D8" s="15">
         <f t="shared" si="3"/>
-        <v>53.648534555542163</v>
-      </c>
-      <c r="E8" s="17">
+        <v>55.597611685680782</v>
+      </c>
+      <c r="E8" s="15">
         <f t="shared" si="3"/>
-        <v>114.71970652298521</v>
+        <v>114.60549513678413</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1317,87 +1500,87 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <f>(C33/C21)*100</f>
         <v>0</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <f t="shared" ref="D11:E11" si="4">(D33/D21)*100</f>
-        <v>108.11881188118812</v>
-      </c>
-      <c r="E11" s="18">
+        <v>109.94371482176359</v>
+      </c>
+      <c r="E11" s="16">
         <f t="shared" si="4"/>
-        <v>106.22568093385215</v>
+        <v>107.52293577981651</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <f t="shared" ref="C12:E12" si="5">(C34/C22)*100</f>
         <v>0</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f t="shared" si="5"/>
-        <v>673.33333333333337</v>
-      </c>
-      <c r="E12" s="16">
+        <v>752.50272034820455</v>
+      </c>
+      <c r="E12" s="14">
         <f t="shared" si="5"/>
-        <v>102.92993630573248</v>
+        <v>112.50203351228241</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <f t="shared" ref="C13:E13" si="6">(C35/C23)*100</f>
         <v>0</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <f t="shared" si="6"/>
-        <v>671.73913043478262</v>
-      </c>
-      <c r="E13" s="16">
+        <v>750.13077593722755</v>
+      </c>
+      <c r="E13" s="14">
         <f t="shared" si="6"/>
-        <v>102.84417549167928</v>
+        <v>112.51471165162808</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <f t="shared" ref="C14:E14" si="7">(C36/C24)*100</f>
         <v>0</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <f t="shared" si="7"/>
-        <v>937.8723917500904</v>
-      </c>
-      <c r="E14" s="17">
+        <v>1042.7550911611047</v>
+      </c>
+      <c r="E14" s="15">
         <f t="shared" si="7"/>
-        <v>89.142496847414876</v>
+        <v>96.86812860284067</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1405,87 +1588,87 @@
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <f>'Table 3'!C13</f>
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D21" s="18">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D21" s="16">
         <f>'Table 3'!D13</f>
-        <v>0.505</v>
-      </c>
-      <c r="E21" s="18">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E21" s="16">
         <f>'Table 3'!E13</f>
-        <v>0.51400000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <f>'Table 3'!C14</f>
-        <v>4.6550000000000002</v>
-      </c>
-      <c r="D22" s="16">
+        <v>10.456</v>
+      </c>
+      <c r="D22" s="14">
         <f>'Table 3'!D14</f>
-        <v>0.84</v>
-      </c>
-      <c r="E22" s="16">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="E22" s="14">
         <f>'Table 3'!E14</f>
-        <v>5.4950000000000001</v>
+        <v>12.294</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <f>'Table 3'!C15</f>
-        <v>2.7989999999999999</v>
-      </c>
-      <c r="D23" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="D23" s="14">
         <f>'Table 3'!D15</f>
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E23" s="16">
+        <v>1.147</v>
+      </c>
+      <c r="E23" s="14">
         <f>'Table 3'!E15</f>
-        <v>3.3050000000000002</v>
+        <v>7.6470000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
         <f>'Table 3'!C16</f>
-        <v>78.938999999999993</v>
-      </c>
-      <c r="D24" s="17">
+        <v>183.16499999999999</v>
+      </c>
+      <c r="D24" s="15">
         <f>'Table 3'!D16</f>
-        <v>8.2910000000000004</v>
-      </c>
-      <c r="E24" s="17">
+        <v>18.757999999999999</v>
+      </c>
+      <c r="E24" s="15">
         <f>'Table 3'!E16</f>
-        <v>87.23</v>
+        <v>201.92400000000001</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1493,87 +1676,87 @@
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <f>'Table 3'!C19</f>
-        <v>0.48</v>
-      </c>
-      <c r="D27" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="D27" s="16">
         <f>'Table 3'!D19</f>
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E27" s="18">
+        <v>0.503</v>
+      </c>
+      <c r="E27" s="16">
         <f>'Table 3'!E19</f>
-        <v>0.49199999999999999</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <f>'Table 3'!C20</f>
-        <v>5.1669999999999998</v>
-      </c>
-      <c r="D28" s="16">
+        <v>11.574999999999999</v>
+      </c>
+      <c r="D28" s="14">
         <f>'Table 3'!D20</f>
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="E28" s="16">
+        <v>1.038</v>
+      </c>
+      <c r="E28" s="14">
         <f>'Table 3'!E20</f>
-        <v>5.6280000000000001</v>
+        <v>12.612</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <f>'Table 3'!C21</f>
-        <v>3.1040000000000001</v>
-      </c>
-      <c r="D29" s="16">
+        <v>7.1989999999999998</v>
+      </c>
+      <c r="D29" s="14">
         <f>'Table 3'!D21</f>
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="E29" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="E29" s="14">
         <f>'Table 3'!E21</f>
-        <v>3.383</v>
+        <v>7.8490000000000002</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="15">
         <f>'Table 3'!C22</f>
-        <v>95.622</v>
-      </c>
-      <c r="D30" s="17">
+        <v>220.98599999999999</v>
+      </c>
+      <c r="D30" s="15">
         <f>'Table 3'!D22</f>
-        <v>4.4480000000000004</v>
-      </c>
-      <c r="E30" s="17">
+        <v>10.429</v>
+      </c>
+      <c r="E30" s="15">
         <f>'Table 3'!E22</f>
-        <v>100.07</v>
+        <v>231.416</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1581,68 +1764,68 @@
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <f>'Table 3'!C25</f>
         <v>0</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="16">
         <f>'Table 3'!D25</f>
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E33" s="18">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E33" s="16">
         <f>'Table 3'!E25</f>
-        <v>0.54600000000000004</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="14">
         <f>'Table 3'!C26</f>
         <v>0</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="14">
         <f>'Table 3'!D26</f>
-        <v>5.6559999999999997</v>
-      </c>
-      <c r="E34" s="16">
+        <v>13.831</v>
+      </c>
+      <c r="E34" s="14">
         <f>'Table 3'!E26</f>
-        <v>5.6559999999999997</v>
+        <v>13.831</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="14">
         <f>'Table 3'!C27</f>
         <v>0</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <f>'Table 3'!D27</f>
-        <v>3.399</v>
-      </c>
-      <c r="E35" s="16">
+        <v>8.6039999999999992</v>
+      </c>
+      <c r="E35" s="14">
         <f>'Table 3'!E27</f>
-        <v>3.399</v>
+        <v>8.6039999999999992</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="15">
         <f>'Table 3'!C28</f>
         <v>0</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="15">
         <f>'Table 3'!D28</f>
-        <v>77.759</v>
-      </c>
-      <c r="E36" s="17">
+        <v>195.6</v>
+      </c>
+      <c r="E36" s="15">
         <f>'Table 3'!E28</f>
-        <v>77.759</v>
+        <v>195.6</v>
       </c>
     </row>
   </sheetData>
@@ -1661,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5556E55-35DB-4F2E-925F-A91DDA817CF1}">
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,28 +1854,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1700,51 +1883,51 @@
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9">
-        <v>16.413</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2.601</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2.6379999999999999</v>
+      <c r="C4" s="16">
+        <v>9.3249999999999993</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1.093</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1.105</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
-        <v>72.575000000000003</v>
-      </c>
-      <c r="D5" s="6">
-        <v>53.719000000000001</v>
-      </c>
-      <c r="E5" s="6">
-        <v>57.255000000000003</v>
-      </c>
-      <c r="F5" s="6">
-        <v>57.22</v>
+      <c r="C5" s="14">
+        <v>83.418999999999997</v>
+      </c>
+      <c r="D5" s="14">
+        <v>69.932000000000002</v>
+      </c>
+      <c r="E5" s="14">
+        <v>72.638000000000005</v>
+      </c>
+      <c r="F5" s="14">
+        <v>72.600999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
-        <v>11.012</v>
-      </c>
-      <c r="D6" s="11">
-        <v>44.271999999999998</v>
-      </c>
-      <c r="E6" s="11">
-        <v>40.143999999999998</v>
-      </c>
-      <c r="F6" s="11">
-        <v>40.142000000000003</v>
+      <c r="C6" s="15">
+        <v>7.2560000000000002</v>
+      </c>
+      <c r="D6" s="15">
+        <v>29.202000000000002</v>
+      </c>
+      <c r="E6" s="15">
+        <v>26.268999999999998</v>
+      </c>
+      <c r="F6" s="15">
+        <v>26.292999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1753,4 +1936,416 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C778AA-4DE8-4ED1-BE12-EAC830A432F0}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="E2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="I2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="E3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="I3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="E4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="I4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="E5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="I5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="E6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="I6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35">
+        <v>100</v>
+      </c>
+      <c r="C8" s="35">
+        <v>100</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="35">
+        <v>100</v>
+      </c>
+      <c r="G8" s="35">
+        <v>100</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="35">
+        <v>100</v>
+      </c>
+      <c r="K8" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="35">
+        <v>41.03</v>
+      </c>
+      <c r="C9" s="35">
+        <v>43.94</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="35">
+        <v>3.35</v>
+      </c>
+      <c r="G9" s="35">
+        <v>3.77</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1.35</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="35">
+        <v>46.22</v>
+      </c>
+      <c r="C10" s="35">
+        <v>45.63</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="35">
+        <v>19.09</v>
+      </c>
+      <c r="G10" s="35">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="35">
+        <v>5.56</v>
+      </c>
+      <c r="K10" s="35">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="35">
+        <v>5.37</v>
+      </c>
+      <c r="C11" s="35">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="35">
+        <v>7.33</v>
+      </c>
+      <c r="G11" s="35">
+        <v>6.65</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="35">
+        <v>2.89</v>
+      </c>
+      <c r="K11" s="35">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="35">
+        <v>3.99</v>
+      </c>
+      <c r="C12" s="35">
+        <v>3.2</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="35">
+        <v>9.86</v>
+      </c>
+      <c r="G12" s="35">
+        <v>8.85</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="35">
+        <v>5.22</v>
+      </c>
+      <c r="K12" s="35">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="35">
+        <v>2.09</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1.74</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="35">
+        <v>11.3</v>
+      </c>
+      <c r="G13" s="35">
+        <v>10.59</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="35">
+        <v>9.14</v>
+      </c>
+      <c r="K13" s="35">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="35">
+        <v>0.67</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0.59</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="35">
+        <v>8.31</v>
+      </c>
+      <c r="G14" s="35">
+        <v>8.07</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="35">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="K14" s="35">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0.63</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="35">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="G15" s="35">
+        <v>41.76</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="35">
+        <v>66.63</v>
+      </c>
+      <c r="K15" s="35">
+        <v>66.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="E16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="I16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Extended_Model/Results_slump.xlsx
+++ b/Extended_Model/Results_slump.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manfrede\MATLAB_GIT\trunk\Extended_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E2381-C34C-43C6-85C6-9B1F223ABF03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77770B-CAB2-4C2C-B016-18814FE99717}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="1590" windowWidth="14955" windowHeight="14280" xr2:uid="{3A31E30E-C155-4713-BBA4-07880A7574EB}"/>
+    <workbookView xWindow="3120" yWindow="1320" windowWidth="14955" windowHeight="14280" activeTab="4" xr2:uid="{3A31E30E-C155-4713-BBA4-07880A7574EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 and 2" sheetId="5" r:id="rId1"/>
     <sheet name="Table 3" sheetId="6" r:id="rId2"/>
     <sheet name="Table 4" sheetId="7" r:id="rId3"/>
     <sheet name="Table 5" sheetId="8" r:id="rId4"/>
-    <sheet name="IBGE" sheetId="9" r:id="rId5"/>
+    <sheet name="Table 6" sheetId="10" r:id="rId5"/>
+    <sheet name="IBGE" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
   <si>
     <t>Share of establishments</t>
   </si>
@@ -182,13 +183,37 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Relative productivity</t>
+  </si>
+  <si>
+    <t>Relative output</t>
+  </si>
+  <si>
+    <t>Relative labor</t>
+  </si>
+  <si>
+    <t>Relative subsidy Cost</t>
+  </si>
+  <si>
+    <t>Relative capital</t>
+  </si>
+  <si>
+    <t>Relative Y/L</t>
+  </si>
+  <si>
+    <t>Relative K/L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +252,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,11 +343,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -333,9 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -384,8 +414,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,31 +445,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FF523020-05FF-4D9F-928D-6A2DA7EA3C7A}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41763950-9EDA-4279-9F13-77D4025E5D2D}">
-  <dimension ref="B4:E25"/>
+  <dimension ref="B4:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,281 +790,395 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>2010</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="30">
         <f>IBGE!B9</f>
         <v>41.03</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="30">
         <f>IBGE!J9</f>
         <v>1.35</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="30">
         <f>IBGE!F9</f>
         <v>3.35</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="30">
         <f>SUM(IBGE!B10:B11)</f>
         <v>51.589999999999996</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="30">
         <f>SUM(IBGE!J10:J11)</f>
         <v>8.4499999999999993</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="30">
         <f>SUM(IBGE!F10:F11)</f>
         <v>26.42</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="31">
         <f>SUM(IBGE!B12:B15)</f>
         <v>7.38</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="31">
         <f>SUM(IBGE!J12:J15)</f>
         <v>90.199999999999989</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="31">
         <f>SUM(IBGE!F12:F15)</f>
         <v>70.240000000000009</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>41.268000000000001</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>5.4119999999999999</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>5.984</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>47.692</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>44.177</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>46.697000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="32">
+        <f>C23-C6</f>
+        <v>3.7800000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>11.04</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>50.411000000000001</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>47.319000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="32">
+        <f>C25-C13</f>
+        <v>1.2630000000000017</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>2015</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="30">
         <f>IBGE!C9</f>
         <v>43.94</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="30">
         <f>IBGE!K9</f>
         <v>1.52</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="30">
         <f>IBGE!G9</f>
         <v>3.77</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="30">
         <f>SUM(IBGE!C10:C11)</f>
         <v>49.980000000000004</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="30">
         <f>SUM(IBGE!K10:K11)</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="30">
         <f>SUM(IBGE!G10:G11)</f>
         <v>26.96</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="31">
         <f>SUM(IBGE!C12:C15)</f>
         <v>6.08</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="31">
         <f>SUM(IBGE!K12:K15)</f>
         <v>89.94</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="31">
         <f>SUM(IBGE!G12:G15)</f>
         <v>69.27</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>44.81</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>4.8739999999999997</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>5.2450000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>42.887999999999998</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>42.137999999999998</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>45.055</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="32">
+        <f>C29-C23</f>
+        <v>-35.484999999999999</v>
+      </c>
+      <c r="H24" s="32">
+        <f>C29-C11</f>
+        <v>-31.943000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>12.303000000000001</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>52.988</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>49.701000000000001</v>
       </c>
+      <c r="G25" s="32">
+        <f t="shared" ref="G25:G26" si="0">C30-C24</f>
+        <v>40.530999999999999</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" ref="H25:H26" si="1">C30-C12</f>
+        <v>35.726999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="32">
+        <f t="shared" si="0"/>
+        <v>-5.0470000000000006</v>
+      </c>
+      <c r="H26" s="32">
+        <f t="shared" si="1"/>
+        <v>-3.7839999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="15">
+        <v>9.3249999999999993</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1.093</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="13">
+        <v>83.418999999999997</v>
+      </c>
+      <c r="D30" s="13">
+        <v>69.932000000000002</v>
+      </c>
+      <c r="E30" s="13">
+        <v>72.638000000000005</v>
+      </c>
+      <c r="F30" s="13">
+        <v>72.600999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="14">
+        <v>7.2560000000000002</v>
+      </c>
+      <c r="D31" s="14">
+        <v>29.202000000000002</v>
+      </c>
+      <c r="E31" s="14">
+        <v>26.268999999999998</v>
+      </c>
+      <c r="F31" s="14">
+        <v>26.292999999999999</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B27:F27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1023,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4990B-AFDD-45AD-8D8E-B2F928A96B1F}">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,338 +1201,455 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="16">
-        <f>(E19/E13)*100</f>
-        <v>95.77981651376146</v>
-      </c>
-      <c r="D3" s="16">
-        <f>(E25/E13)*100</f>
-        <v>107.52293577981651</v>
+        <v>49</v>
+      </c>
+      <c r="C3" s="15">
+        <f>(E28/E22)</f>
+        <v>0.95779816513761462</v>
+      </c>
+      <c r="D3" s="15">
+        <f>(E34/E22)</f>
+        <v>1.0752293577981651</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14">
-        <f t="shared" ref="C4:C6" si="0">(E20/E14)*100</f>
-        <v>102.58662762323083</v>
-      </c>
-      <c r="D4" s="14">
-        <f t="shared" ref="D4:D6" si="1">(E26/E14)*100</f>
-        <v>112.50203351228241</v>
+        <v>50</v>
+      </c>
+      <c r="C4" s="13">
+        <f>(E29/E23)</f>
+        <v>1.0258662762323083</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D6" si="0">(E35/E23)</f>
+        <v>1.1250203351228241</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14">
+        <v>51</v>
+      </c>
+      <c r="C5" s="13">
+        <f>(E30/E24)</f>
+        <v>1.0264155878122139</v>
+      </c>
+      <c r="D5" s="13">
         <f t="shared" si="0"/>
-        <v>102.64155878122139</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" si="1"/>
-        <v>112.51471165162808</v>
+        <v>1.1251471165162807</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13">
+        <f>(E31/E25)</f>
+        <v>1.1460549513678413</v>
+      </c>
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
-        <v>114.60549513678413</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="1"/>
-        <v>96.86812860284067</v>
+        <v>0.96868128602840664</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="13">
+        <f>I10/H10</f>
+        <v>1.4306531355711685</v>
+      </c>
+      <c r="D7" s="40">
+        <f>J10/H10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="13">
+        <f>(E29/E30)/(E23/E24)</f>
+        <v>0.99946482537246306</v>
+      </c>
+      <c r="D8" s="13">
+        <f>(E35/E36)/(E23/E24)</f>
+        <v>0.99988732016320747</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="14">
+        <f>(E31/E29)/(E25/E23)</f>
+        <v>1.1171582280460071</v>
+      </c>
+      <c r="D9" s="14">
+        <f>(E37/E35)/(E25/E23)</f>
+        <v>0.86103446825487906</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J9">
+        <v>-107.129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28">
-        <f>(I8/H8)*100</f>
-        <v>143.06531355711684</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="H10">
+        <v>3.843</v>
+      </c>
+      <c r="I10">
+        <v>5.4980000000000002</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I7">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="J7">
-        <v>-107.129</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>3.843</v>
-      </c>
-      <c r="I8">
-        <v>5.4980000000000002</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>6</v>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0.54500000000000004</v>
+      <c r="C13" s="33">
+        <f>(E28-E22)/E22</f>
+        <v>-4.2201834862385358E-2</v>
+      </c>
+      <c r="D13" s="33">
+        <f>(E34-E22)/E22</f>
+        <v>7.5229357798164989E-2</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14">
-        <v>10.456</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1.8380000000000001</v>
-      </c>
-      <c r="E14" s="14">
-        <v>12.294</v>
+      <c r="C14" s="34">
+        <f t="shared" ref="C14:C16" si="1">(E29-E23)/E23</f>
+        <v>2.5866276232308413E-2</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" ref="D14:D16" si="2">(E35-E23)/E23</f>
+        <v>0.12502033512282407</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="34">
+        <f t="shared" si="1"/>
+        <v>2.6415587812213932E-2</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" si="2"/>
+        <v>0.12514711651628074</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="34">
+        <f t="shared" si="1"/>
+        <v>0.1460549513678413</v>
+      </c>
+      <c r="D16" s="34">
+        <f t="shared" si="2"/>
+        <v>-3.1318713971593332E-2</v>
+      </c>
+      <c r="G16">
+        <f>(E29-E23)/E23</f>
+        <v>2.5866276232308413E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="35">
+        <f>(I10-H10)/H10</f>
+        <v>0.43065313557116841</v>
+      </c>
+      <c r="D17" s="35">
+        <f>(J10-H10)/H10</f>
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <f>(E35-E23)/E23</f>
+        <v>0.12502033512282407</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="13">
+        <v>10.456</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="E23" s="13">
+        <v>12.294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="13">
         <v>6.5</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D24" s="13">
         <v>1.147</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E24" s="13">
         <v>7.6470000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="G24">
+        <f>E25/E24</f>
+        <v>26.405649274225187</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C25" s="14">
         <v>183.16499999999999</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D25" s="14">
         <v>18.757999999999999</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E25" s="14">
         <v>201.92400000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C28" s="15">
         <v>0.51</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D28" s="15">
         <v>0.503</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E28" s="15">
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C29" s="13">
         <v>11.574999999999999</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D29" s="13">
         <v>1.038</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E29" s="13">
         <v>12.612</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C30" s="13">
         <v>7.1989999999999998</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D30" s="13">
         <v>0.65</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E30" s="13">
         <v>7.8490000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="G30">
+        <f>E31/E30</f>
+        <v>29.483501082940499</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C31" s="14">
         <v>220.98599999999999</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D31" s="14">
         <v>10.429</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E31" s="14">
         <v>231.416</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="10" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+    </row>
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C34" s="15">
         <v>0</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D34" s="15">
         <v>0.58599999999999997</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E34" s="15">
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C35" s="13">
         <v>0</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D35" s="13">
         <v>13.831</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E35" s="13">
         <v>13.831</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C36" s="13">
         <v>0</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D36" s="13">
         <v>8.6039999999999992</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E36" s="13">
         <v>8.6039999999999992</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C37" s="14">
         <v>0</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D37" s="14">
         <v>195.6</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E37" s="14">
         <v>195.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1389,22 +1669,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1412,15 +1692,15 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>(C27/C21)*100</f>
         <v>97.701149425287355</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" ref="D5:E5" si="0">(D27/D21)*100</f>
         <v>94.371482176360217</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>95.77981651376146</v>
       </c>
@@ -1429,15 +1709,15 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <f t="shared" ref="C6:E6" si="1">(C28/C22)*100</f>
         <v>110.70198928844684</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <f t="shared" si="1"/>
         <v>56.474428726877036</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f t="shared" si="1"/>
         <v>102.58662762323083</v>
       </c>
@@ -1446,15 +1726,15 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f t="shared" ref="C7:E7" si="2">(C29/C23)*100</f>
         <v>110.75384615384615</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <f t="shared" si="2"/>
         <v>56.66957279860506</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f t="shared" si="2"/>
         <v>102.64155878122139</v>
       </c>
@@ -1463,36 +1743,36 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f t="shared" ref="C8:E8" si="3">(C30/C24)*100</f>
         <v>120.64859552862173</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f t="shared" si="3"/>
         <v>55.597611685680782</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" si="3"/>
         <v>114.60549513678413</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1500,15 +1780,15 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <f>(C33/C21)*100</f>
         <v>0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <f t="shared" ref="D11:E11" si="4">(D33/D21)*100</f>
         <v>109.94371482176359</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <f t="shared" si="4"/>
         <v>107.52293577981651</v>
       </c>
@@ -1517,15 +1797,15 @@
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f t="shared" ref="C12:E12" si="5">(C34/C22)*100</f>
         <v>0</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f t="shared" si="5"/>
         <v>752.50272034820455</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f t="shared" si="5"/>
         <v>112.50203351228241</v>
       </c>
@@ -1534,15 +1814,15 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <f t="shared" ref="C13:E13" si="6">(C35/C23)*100</f>
         <v>0</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f t="shared" si="6"/>
         <v>750.13077593722755</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" si="6"/>
         <v>112.51471165162808</v>
       </c>
@@ -1551,36 +1831,36 @@
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f t="shared" ref="C14:E14" si="7">(C36/C24)*100</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f t="shared" si="7"/>
         <v>1042.7550911611047</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <f t="shared" si="7"/>
         <v>96.86812860284067</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1588,16 +1868,16 @@
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="16">
-        <f>'Table 3'!C13</f>
+      <c r="C21" s="15">
+        <f>'Table 3'!C22</f>
         <v>0.52200000000000002</v>
       </c>
-      <c r="D21" s="16">
-        <f>'Table 3'!D13</f>
+      <c r="D21" s="15">
+        <f>'Table 3'!D22</f>
         <v>0.53300000000000003</v>
       </c>
-      <c r="E21" s="16">
-        <f>'Table 3'!E13</f>
+      <c r="E21" s="15">
+        <f>'Table 3'!E22</f>
         <v>0.54500000000000004</v>
       </c>
     </row>
@@ -1605,16 +1885,16 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="14">
-        <f>'Table 3'!C14</f>
+      <c r="C22" s="13">
+        <f>'Table 3'!C23</f>
         <v>10.456</v>
       </c>
-      <c r="D22" s="14">
-        <f>'Table 3'!D14</f>
+      <c r="D22" s="13">
+        <f>'Table 3'!D23</f>
         <v>1.8380000000000001</v>
       </c>
-      <c r="E22" s="14">
-        <f>'Table 3'!E14</f>
+      <c r="E22" s="13">
+        <f>'Table 3'!E23</f>
         <v>12.294</v>
       </c>
     </row>
@@ -1622,16 +1902,16 @@
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="14">
-        <f>'Table 3'!C15</f>
+      <c r="C23" s="13">
+        <f>'Table 3'!C24</f>
         <v>6.5</v>
       </c>
-      <c r="D23" s="14">
-        <f>'Table 3'!D15</f>
+      <c r="D23" s="13">
+        <f>'Table 3'!D24</f>
         <v>1.147</v>
       </c>
-      <c r="E23" s="14">
-        <f>'Table 3'!E15</f>
+      <c r="E23" s="13">
+        <f>'Table 3'!E24</f>
         <v>7.6470000000000002</v>
       </c>
     </row>
@@ -1639,36 +1919,36 @@
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="15">
-        <f>'Table 3'!C16</f>
+      <c r="C24" s="14">
+        <f>'Table 3'!C25</f>
         <v>183.16499999999999</v>
       </c>
-      <c r="D24" s="15">
-        <f>'Table 3'!D16</f>
+      <c r="D24" s="14">
+        <f>'Table 3'!D25</f>
         <v>18.757999999999999</v>
       </c>
-      <c r="E24" s="15">
-        <f>'Table 3'!E16</f>
+      <c r="E24" s="14">
+        <f>'Table 3'!E25</f>
         <v>201.92400000000001</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1676,16 +1956,16 @@
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="16">
-        <f>'Table 3'!C19</f>
+      <c r="C27" s="15">
+        <f>'Table 3'!C28</f>
         <v>0.51</v>
       </c>
-      <c r="D27" s="16">
-        <f>'Table 3'!D19</f>
+      <c r="D27" s="15">
+        <f>'Table 3'!D28</f>
         <v>0.503</v>
       </c>
-      <c r="E27" s="16">
-        <f>'Table 3'!E19</f>
+      <c r="E27" s="15">
+        <f>'Table 3'!E28</f>
         <v>0.52200000000000002</v>
       </c>
     </row>
@@ -1693,16 +1973,16 @@
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="14">
-        <f>'Table 3'!C20</f>
+      <c r="C28" s="13">
+        <f>'Table 3'!C29</f>
         <v>11.574999999999999</v>
       </c>
-      <c r="D28" s="14">
-        <f>'Table 3'!D20</f>
+      <c r="D28" s="13">
+        <f>'Table 3'!D29</f>
         <v>1.038</v>
       </c>
-      <c r="E28" s="14">
-        <f>'Table 3'!E20</f>
+      <c r="E28" s="13">
+        <f>'Table 3'!E29</f>
         <v>12.612</v>
       </c>
     </row>
@@ -1710,16 +1990,16 @@
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="14">
-        <f>'Table 3'!C21</f>
+      <c r="C29" s="13">
+        <f>'Table 3'!C30</f>
         <v>7.1989999999999998</v>
       </c>
-      <c r="D29" s="14">
-        <f>'Table 3'!D21</f>
+      <c r="D29" s="13">
+        <f>'Table 3'!D30</f>
         <v>0.65</v>
       </c>
-      <c r="E29" s="14">
-        <f>'Table 3'!E21</f>
+      <c r="E29" s="13">
+        <f>'Table 3'!E30</f>
         <v>7.8490000000000002</v>
       </c>
     </row>
@@ -1727,36 +2007,36 @@
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="15">
-        <f>'Table 3'!C22</f>
+      <c r="C30" s="14">
+        <f>'Table 3'!C31</f>
         <v>220.98599999999999</v>
       </c>
-      <c r="D30" s="15">
-        <f>'Table 3'!D22</f>
+      <c r="D30" s="14">
+        <f>'Table 3'!D31</f>
         <v>10.429</v>
       </c>
-      <c r="E30" s="15">
-        <f>'Table 3'!E22</f>
+      <c r="E30" s="14">
+        <f>'Table 3'!E31</f>
         <v>231.416</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1764,16 +2044,16 @@
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="16">
-        <f>'Table 3'!C25</f>
+      <c r="C33" s="15">
+        <f>'Table 3'!C34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="16">
-        <f>'Table 3'!D25</f>
+      <c r="D33" s="15">
+        <f>'Table 3'!D34</f>
         <v>0.58599999999999997</v>
       </c>
-      <c r="E33" s="16">
-        <f>'Table 3'!E25</f>
+      <c r="E33" s="15">
+        <f>'Table 3'!E34</f>
         <v>0.58599999999999997</v>
       </c>
     </row>
@@ -1781,16 +2061,16 @@
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="14">
-        <f>'Table 3'!C26</f>
+      <c r="C34" s="13">
+        <f>'Table 3'!C35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="14">
-        <f>'Table 3'!D26</f>
+      <c r="D34" s="13">
+        <f>'Table 3'!D35</f>
         <v>13.831</v>
       </c>
-      <c r="E34" s="14">
-        <f>'Table 3'!E26</f>
+      <c r="E34" s="13">
+        <f>'Table 3'!E35</f>
         <v>13.831</v>
       </c>
     </row>
@@ -1798,16 +2078,16 @@
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="14">
-        <f>'Table 3'!C27</f>
+      <c r="C35" s="13">
+        <f>'Table 3'!C36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="14">
-        <f>'Table 3'!D27</f>
+      <c r="D35" s="13">
+        <f>'Table 3'!D36</f>
         <v>8.6039999999999992</v>
       </c>
-      <c r="E35" s="14">
-        <f>'Table 3'!E27</f>
+      <c r="E35" s="13">
+        <f>'Table 3'!E36</f>
         <v>8.6039999999999992</v>
       </c>
     </row>
@@ -1815,16 +2095,16 @@
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="15">
-        <f>'Table 3'!C28</f>
+      <c r="C36" s="14">
+        <f>'Table 3'!C37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="15">
-        <f>'Table 3'!D28</f>
+      <c r="D36" s="14">
+        <f>'Table 3'!D37</f>
         <v>195.6</v>
       </c>
-      <c r="E36" s="15">
-        <f>'Table 3'!E28</f>
+      <c r="E36" s="14">
+        <f>'Table 3'!E37</f>
         <v>195.6</v>
       </c>
     </row>
@@ -1845,7 +2125,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,28 +2134,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1883,16 +2163,20 @@
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
+        <f>'Table 1 and 2'!C29</f>
         <v>9.3249999999999993</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
+        <f>'Table 1 and 2'!D29</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
+        <f>'Table 1 and 2'!E29</f>
         <v>1.093</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
+        <f>'Table 1 and 2'!F29</f>
         <v>1.105</v>
       </c>
     </row>
@@ -1900,16 +2184,20 @@
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
+        <f>'Table 1 and 2'!C30</f>
         <v>83.418999999999997</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
+        <f>'Table 1 and 2'!D30</f>
         <v>69.932000000000002</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
+        <f>'Table 1 and 2'!E30</f>
         <v>72.638000000000005</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
+        <f>'Table 1 and 2'!F30</f>
         <v>72.600999999999999</v>
       </c>
     </row>
@@ -1917,16 +2205,20 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
+        <f>'Table 1 and 2'!C31</f>
         <v>7.2560000000000002</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
+        <f>'Table 1 and 2'!D31</f>
         <v>29.202000000000002</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
+        <f>'Table 1 and 2'!E31</f>
         <v>26.268999999999998</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
+        <f>'Table 1 and 2'!F31</f>
         <v>26.292999999999999</v>
       </c>
     </row>
@@ -1939,6 +2231,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E552865-B5A2-4A79-A5D7-57839F356415}">
+  <dimension ref="B3:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.3149999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1.55</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.966</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1.964</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1.952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C778AA-4DE8-4ED1-BE12-EAC830A432F0}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -1960,367 +2328,367 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="E3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="E4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="I4" s="32" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="I4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="E5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="I5" s="32" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="I5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="E6" s="32" t="s">
+      <c r="C6" s="38"/>
+      <c r="E6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="I6" s="32" t="s">
+      <c r="G6" s="38"/>
+      <c r="I6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="29">
         <v>100</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="29">
         <v>100</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="29">
         <v>100</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="29">
         <v>100</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="29">
         <v>100</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="29">
         <v>41.03</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="29">
         <v>43.94</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="29">
         <v>3.35</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="29">
         <v>3.77</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="29">
         <v>1.35</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="29">
         <v>1.52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="29">
         <v>46.22</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="29">
         <v>45.63</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="29">
         <v>19.09</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="29">
         <v>20.309999999999999</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="29">
         <v>5.56</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="29">
         <v>5.64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="29">
         <v>5.37</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="29">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="29">
         <v>7.33</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="29">
         <v>6.65</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="29">
         <v>2.89</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="29">
         <v>2.89</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="29">
         <v>3.99</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="29">
         <v>3.2</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="29">
         <v>9.86</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="29">
         <v>8.85</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="29">
         <v>5.22</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="29">
         <v>5.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="29">
         <v>2.09</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="29">
         <v>1.74</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="29">
         <v>11.3</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="29">
         <v>10.59</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="29">
         <v>9.14</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="29">
         <v>9.85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="29">
         <v>0.67</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="29">
         <v>0.59</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="29">
         <v>8.31</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="29">
         <v>8.07</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="29">
         <v>9.2100000000000009</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="29">
         <v>8.8699999999999992</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="29">
         <v>0.63</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="29">
         <v>40.770000000000003</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="29">
         <v>41.76</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="29">
         <v>66.63</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="29">
         <v>66.02</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="E16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="I16" s="32" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="I16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/Extended_Model/Results_slump.xlsx
+++ b/Extended_Model/Results_slump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manfrede\MATLAB_GIT\trunk\Extended_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77770B-CAB2-4C2C-B016-18814FE99717}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072F9CA-5F41-44D9-B12F-7A300C42C9F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1320" windowWidth="14955" windowHeight="14280" activeTab="4" xr2:uid="{3A31E30E-C155-4713-BBA4-07880A7574EB}"/>
+    <workbookView xWindow="780" yWindow="810" windowWidth="14955" windowHeight="14280" xr2:uid="{3A31E30E-C155-4713-BBA4-07880A7574EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 and 2" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
   <si>
     <t>Share of establishments</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Relative K/L</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -439,18 +442,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,6 +452,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -780,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41763950-9EDA-4279-9F13-77D4025E5D2D}">
   <dimension ref="B4:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,13 +899,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="16">
-        <v>41.268000000000001</v>
+        <v>42.441000000000003</v>
       </c>
       <c r="D11" s="16">
-        <v>5.4119999999999999</v>
+        <v>5.7030000000000003</v>
       </c>
       <c r="E11" s="16">
-        <v>5.984</v>
+        <v>6.3040000000000003</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -904,17 +913,17 @@
         <v>17</v>
       </c>
       <c r="C12" s="16">
-        <v>47.692</v>
+        <v>49.823999999999998</v>
       </c>
       <c r="D12" s="16">
-        <v>44.177</v>
+        <v>53.698999999999998</v>
       </c>
       <c r="E12" s="16">
-        <v>46.697000000000003</v>
+        <v>56.29</v>
       </c>
       <c r="G12" s="32">
         <f>C23-C6</f>
-        <v>3.7800000000000011</v>
+        <v>3.8159999999999954</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -922,17 +931,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="17">
-        <v>11.04</v>
+        <v>7.7350000000000003</v>
       </c>
       <c r="D13" s="17">
-        <v>50.411000000000001</v>
+        <v>40.597999999999999</v>
       </c>
       <c r="E13" s="17">
-        <v>47.319000000000003</v>
+        <v>37.405999999999999</v>
       </c>
       <c r="G13" s="32">
         <f>C25-C13</f>
-        <v>1.2630000000000017</v>
+        <v>1.2619999999999996</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1035,13 +1044,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="16">
-        <v>44.81</v>
+        <v>44.845999999999997</v>
       </c>
       <c r="D23" s="16">
-        <v>4.8739999999999997</v>
+        <v>5.1219999999999999</v>
       </c>
       <c r="E23" s="16">
-        <v>5.2450000000000001</v>
+        <v>5.5140000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1049,21 +1058,21 @@
         <v>17</v>
       </c>
       <c r="C24" s="16">
-        <v>42.887999999999998</v>
+        <v>46.158000000000001</v>
       </c>
       <c r="D24" s="16">
-        <v>42.137999999999998</v>
+        <v>51.222000000000001</v>
       </c>
       <c r="E24" s="16">
-        <v>45.055</v>
+        <v>54.265999999999998</v>
       </c>
       <c r="G24" s="32">
         <f>C29-C23</f>
-        <v>-35.484999999999999</v>
+        <v>-22.629999999999995</v>
       </c>
       <c r="H24" s="32">
         <f>C29-C11</f>
-        <v>-31.943000000000001</v>
+        <v>-20.225000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1071,41 +1080,41 @@
         <v>11</v>
       </c>
       <c r="C25" s="17">
-        <v>12.303000000000001</v>
+        <v>8.9969999999999999</v>
       </c>
       <c r="D25" s="17">
-        <v>52.988</v>
+        <v>43.655999999999999</v>
       </c>
       <c r="E25" s="17">
-        <v>49.701000000000001</v>
+        <v>40.22</v>
       </c>
       <c r="G25" s="32">
         <f t="shared" ref="G25:G26" si="0">C30-C24</f>
-        <v>40.530999999999999</v>
+        <v>29.634</v>
       </c>
       <c r="H25" s="32">
         <f t="shared" ref="H25:H26" si="1">C30-C12</f>
-        <v>35.726999999999997</v>
+        <v>25.968000000000004</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G26" s="32">
         <f t="shared" si="0"/>
-        <v>-5.0470000000000006</v>
+        <v>-7.0049999999999999</v>
       </c>
       <c r="H26" s="32">
         <f t="shared" si="1"/>
-        <v>-3.7839999999999989</v>
+        <v>-5.7430000000000003</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1129,16 +1138,16 @@
         <v>18</v>
       </c>
       <c r="C29" s="15">
-        <v>9.3249999999999993</v>
+        <v>22.216000000000001</v>
       </c>
       <c r="D29" s="15">
-        <v>0.86699999999999999</v>
+        <v>4.3040000000000003</v>
       </c>
       <c r="E29" s="15">
-        <v>1.093</v>
+        <v>5.2089999999999996</v>
       </c>
       <c r="F29" s="15">
-        <v>1.105</v>
+        <v>5.3239999999999998</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1146,16 +1155,16 @@
         <v>17</v>
       </c>
       <c r="C30" s="13">
-        <v>83.418999999999997</v>
+        <v>75.792000000000002</v>
       </c>
       <c r="D30" s="13">
-        <v>69.932000000000002</v>
+        <v>83.757999999999996</v>
       </c>
       <c r="E30" s="13">
-        <v>72.638000000000005</v>
+        <v>84.587999999999994</v>
       </c>
       <c r="F30" s="13">
-        <v>72.600999999999999</v>
+        <v>84.733999999999995</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1163,16 +1172,16 @@
         <v>11</v>
       </c>
       <c r="C31" s="14">
-        <v>7.2560000000000002</v>
+        <v>1.992</v>
       </c>
       <c r="D31" s="14">
-        <v>29.202000000000002</v>
+        <v>11.938000000000001</v>
       </c>
       <c r="E31" s="14">
-        <v>26.268999999999998</v>
+        <v>10.202999999999999</v>
       </c>
       <c r="F31" s="14">
-        <v>26.292999999999999</v>
+        <v>9.9420000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1188,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4990B-AFDD-45AD-8D8E-B2F928A96B1F}">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,11 +1223,11 @@
       </c>
       <c r="C3" s="15">
         <f>(E28/E22)</f>
-        <v>0.95779816513761462</v>
+        <v>0.96247654784240144</v>
       </c>
       <c r="D3" s="15">
         <f>(E34/E22)</f>
-        <v>1.0752293577981651</v>
+        <v>1.0619136960600373</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -1227,11 +1236,11 @@
       </c>
       <c r="C4" s="13">
         <f>(E29/E23)</f>
-        <v>1.0258662762323083</v>
+        <v>1.0521040095275904</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D6" si="0">(E35/E23)</f>
-        <v>1.1250203351228241</v>
+        <v>1.0097260817784834</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1240,11 +1249,11 @@
       </c>
       <c r="C5" s="13">
         <f>(E30/E24)</f>
-        <v>1.0264155878122139</v>
+        <v>1.0528585116576175</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="0"/>
-        <v>1.1251471165162807</v>
+        <v>1.0099009900990099</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1253,11 +1262,11 @@
       </c>
       <c r="C6" s="13">
         <f>(E31/E25)</f>
-        <v>1.1460549513678413</v>
+        <v>1.1708394875659383</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="0"/>
-        <v>0.96868128602840664</v>
+        <v>0.86849133383571975</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1268,35 +1277,35 @@
         <f>I10/H10</f>
         <v>1.4306531355711685</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="36">
         <f>J10/H10</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="13">
         <f>(E29/E30)/(E23/E24)</f>
-        <v>0.99946482537246306</v>
+        <v>0.99928337747031248</v>
       </c>
       <c r="D8" s="13">
         <f>(E35/E36)/(E23/E24)</f>
-        <v>0.99988732016320747</v>
+        <v>0.99982680646692956</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="14">
         <f>(E31/E29)/(E25/E23)</f>
-        <v>1.1171582280460071</v>
+        <v>1.1128552661743603</v>
       </c>
       <c r="D9" s="14">
         <f>(E37/E35)/(E25/E23)</f>
-        <v>0.86103446825487906</v>
+        <v>0.86012568112135968</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -1339,11 +1348,11 @@
       </c>
       <c r="C13" s="33">
         <f>(E28-E22)/E22</f>
-        <v>-4.2201834862385358E-2</v>
+        <v>-3.752345215759853E-2</v>
       </c>
       <c r="D13" s="33">
         <f>(E34-E22)/E22</f>
-        <v>7.5229357798164989E-2</v>
+        <v>6.1913696060037368E-2</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1352,11 +1361,11 @@
       </c>
       <c r="C14" s="34">
         <f t="shared" ref="C14:C16" si="1">(E29-E23)/E23</f>
-        <v>2.5866276232308413E-2</v>
+        <v>5.2104009527590346E-2</v>
       </c>
       <c r="D14" s="34">
         <f t="shared" ref="D14:D16" si="2">(E35-E23)/E23</f>
-        <v>0.12502033512282407</v>
+        <v>9.7260817784834228E-3</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -1365,11 +1374,11 @@
       </c>
       <c r="C15" s="34">
         <f t="shared" si="1"/>
-        <v>2.6415587812213932E-2</v>
+        <v>5.2858511657617444E-2</v>
       </c>
       <c r="D15" s="34">
         <f t="shared" si="2"/>
-        <v>0.12514711651628074</v>
+        <v>9.9009900990099462E-3</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1378,15 +1387,15 @@
       </c>
       <c r="C16" s="34">
         <f t="shared" si="1"/>
-        <v>0.1460549513678413</v>
+        <v>0.17083948756593817</v>
       </c>
       <c r="D16" s="34">
         <f t="shared" si="2"/>
-        <v>-3.1318713971593332E-2</v>
+        <v>-0.13150866616428028</v>
       </c>
       <c r="G16">
         <f>(E29-E23)/E23</f>
-        <v>2.5866276232308413E-2</v>
+        <v>5.2104009527590346E-2</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1403,16 +1412,16 @@
       </c>
       <c r="G17">
         <f>(E35-E23)/E23</f>
-        <v>0.12502033512282407</v>
+        <v>9.7260817784834228E-3</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -1431,13 +1440,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="D22" s="15">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D22" s="15">
+      <c r="E22" s="15">
         <v>0.53300000000000003</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1445,13 +1454,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="13">
-        <v>10.456</v>
+        <v>8.593</v>
       </c>
       <c r="D23" s="13">
-        <v>1.8380000000000001</v>
+        <v>1.482</v>
       </c>
       <c r="E23" s="13">
-        <v>12.294</v>
+        <v>10.076000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1459,17 +1468,17 @@
         <v>8</v>
       </c>
       <c r="C24" s="13">
-        <v>6.5</v>
+        <v>5.3390000000000004</v>
       </c>
       <c r="D24" s="13">
-        <v>1.147</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="E24" s="13">
-        <v>7.6470000000000002</v>
+        <v>6.2619999999999996</v>
       </c>
       <c r="G24">
         <f>E25/E24</f>
-        <v>26.405649274225187</v>
+        <v>26.48914084956883</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1477,22 +1486,22 @@
         <v>9</v>
       </c>
       <c r="C25" s="14">
-        <v>183.16499999999999</v>
+        <v>150.75299999999999</v>
       </c>
       <c r="D25" s="14">
-        <v>18.757999999999999</v>
+        <v>15.122999999999999</v>
       </c>
       <c r="E25" s="14">
-        <v>201.92400000000001</v>
+        <v>165.875</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -1511,13 +1520,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="15">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="15">
-        <v>0.503</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E28" s="15">
-        <v>0.52200000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1525,13 +1534,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="13">
-        <v>11.574999999999999</v>
+        <v>9.7240000000000002</v>
       </c>
       <c r="D29" s="13">
-        <v>1.038</v>
+        <v>0.877</v>
       </c>
       <c r="E29" s="13">
-        <v>12.612</v>
+        <v>10.601000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1539,17 +1548,17 @@
         <v>8</v>
       </c>
       <c r="C30" s="13">
-        <v>7.1989999999999998</v>
+        <v>6.0430000000000001</v>
       </c>
       <c r="D30" s="13">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E30" s="13">
-        <v>7.8490000000000002</v>
+        <v>6.593</v>
       </c>
       <c r="G30">
         <f>E31/E30</f>
-        <v>29.483501082940499</v>
+        <v>29.457454876384041</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1557,22 +1566,22 @@
         <v>9</v>
       </c>
       <c r="C31" s="14">
-        <v>220.98599999999999</v>
+        <v>185.29499999999999</v>
       </c>
       <c r="D31" s="14">
-        <v>10.429</v>
+        <v>8.9179999999999993</v>
       </c>
       <c r="E31" s="14">
-        <v>231.416</v>
+        <v>194.21299999999999</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
@@ -1594,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="15">
-        <v>0.58599999999999997</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E34" s="15">
-        <v>0.58599999999999997</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1608,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="13">
-        <v>13.831</v>
+        <v>10.173999999999999</v>
       </c>
       <c r="E35" s="13">
-        <v>13.831</v>
+        <v>10.173999999999999</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1622,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="13">
-        <v>8.6039999999999992</v>
+        <v>6.3239999999999998</v>
       </c>
       <c r="E36" s="13">
-        <v>8.6039999999999992</v>
+        <v>6.3239999999999998</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1636,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="14">
-        <v>195.6</v>
+        <v>144.06100000000001</v>
       </c>
       <c r="E37" s="14">
-        <v>195.6</v>
+        <v>144.06100000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1657,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331CC5A-D4E1-4F50-B3DB-DD02D3A3C9B7}">
   <dimension ref="B3:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,12 +1678,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
@@ -1694,15 +1703,15 @@
       </c>
       <c r="C5" s="15">
         <f>(C27/C21)*100</f>
-        <v>97.701149425287355</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" ref="D5:E5" si="0">(D27/D21)*100</f>
-        <v>94.371482176360217</v>
+        <v>94.252873563218387</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="0"/>
-        <v>95.77981651376146</v>
+        <v>96.24765478424014</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1711,15 +1720,15 @@
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:E6" si="1">(C28/C22)*100</f>
-        <v>110.70198928844684</v>
+        <v>113.16187594553706</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="1"/>
-        <v>56.474428726877036</v>
+        <v>59.176788124156545</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="1"/>
-        <v>102.58662762323083</v>
+        <v>105.21040095275904</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1727,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="13">
-        <f t="shared" ref="C7:E7" si="2">(C29/C23)*100</f>
-        <v>110.75384615384615</v>
+        <f>(C29/C23)*100</f>
+        <v>113.18598988574639</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="2"/>
-        <v>56.66957279860506</v>
+        <f t="shared" ref="C7:E7" si="2">(D29/D23)*100</f>
+        <v>59.588299024918747</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="2"/>
-        <v>102.64155878122139</v>
+        <v>105.28585116576174</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1745,24 +1754,24 @@
       </c>
       <c r="C8" s="14">
         <f t="shared" ref="C8:E8" si="3">(C30/C24)*100</f>
-        <v>120.64859552862173</v>
+        <v>122.91297685618197</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="3"/>
-        <v>55.597611685680782</v>
+        <v>58.969781128083056</v>
       </c>
       <c r="E8" s="14">
         <f t="shared" si="3"/>
-        <v>114.60549513678413</v>
+        <v>117.08394875659383</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -1786,11 +1795,11 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ref="D11:E11" si="4">(D33/D21)*100</f>
-        <v>109.94371482176359</v>
+        <v>108.42911877394634</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="4"/>
-        <v>107.52293577981651</v>
+        <v>106.19136960600373</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1803,11 +1812,11 @@
       </c>
       <c r="D12" s="13">
         <f t="shared" si="5"/>
-        <v>752.50272034820455</v>
+        <v>686.50472334682865</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="5"/>
-        <v>112.50203351228241</v>
+        <v>100.97260817784834</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1820,11 +1829,11 @@
       </c>
       <c r="D13" s="13">
         <f t="shared" si="6"/>
-        <v>750.13077593722755</v>
+        <v>685.15709642470199</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="6"/>
-        <v>112.51471165162808</v>
+        <v>100.99009900990099</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1837,20 +1846,20 @@
       </c>
       <c r="D14" s="14">
         <f t="shared" si="7"/>
-        <v>1042.7550911611047</v>
+        <v>952.59538451365484</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="7"/>
-        <v>96.86812860284067</v>
+        <v>86.849133383571981</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -1870,15 +1879,15 @@
       </c>
       <c r="C21" s="15">
         <f>'Table 3'!C22</f>
-        <v>0.52200000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="D21" s="15">
         <f>'Table 3'!D22</f>
-        <v>0.53300000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E21" s="15">
         <f>'Table 3'!E22</f>
-        <v>0.54500000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1887,15 +1896,15 @@
       </c>
       <c r="C22" s="13">
         <f>'Table 3'!C23</f>
-        <v>10.456</v>
+        <v>8.593</v>
       </c>
       <c r="D22" s="13">
         <f>'Table 3'!D23</f>
-        <v>1.8380000000000001</v>
+        <v>1.482</v>
       </c>
       <c r="E22" s="13">
         <f>'Table 3'!E23</f>
-        <v>12.294</v>
+        <v>10.076000000000001</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1904,15 +1913,15 @@
       </c>
       <c r="C23" s="13">
         <f>'Table 3'!C24</f>
-        <v>6.5</v>
+        <v>5.3390000000000004</v>
       </c>
       <c r="D23" s="13">
         <f>'Table 3'!D24</f>
-        <v>1.147</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="E23" s="13">
         <f>'Table 3'!E24</f>
-        <v>7.6470000000000002</v>
+        <v>6.2619999999999996</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1921,24 +1930,24 @@
       </c>
       <c r="C24" s="14">
         <f>'Table 3'!C25</f>
-        <v>183.16499999999999</v>
+        <v>150.75299999999999</v>
       </c>
       <c r="D24" s="14">
         <f>'Table 3'!D25</f>
-        <v>18.757999999999999</v>
+        <v>15.122999999999999</v>
       </c>
       <c r="E24" s="14">
         <f>'Table 3'!E25</f>
-        <v>201.92400000000001</v>
+        <v>165.875</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
@@ -1958,15 +1967,15 @@
       </c>
       <c r="C27" s="15">
         <f>'Table 3'!C28</f>
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="15">
         <f>'Table 3'!D28</f>
-        <v>0.503</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E27" s="15">
         <f>'Table 3'!E28</f>
-        <v>0.52200000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1975,15 +1984,15 @@
       </c>
       <c r="C28" s="13">
         <f>'Table 3'!C29</f>
-        <v>11.574999999999999</v>
+        <v>9.7240000000000002</v>
       </c>
       <c r="D28" s="13">
         <f>'Table 3'!D29</f>
-        <v>1.038</v>
+        <v>0.877</v>
       </c>
       <c r="E28" s="13">
         <f>'Table 3'!E29</f>
-        <v>12.612</v>
+        <v>10.601000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1992,15 +2001,15 @@
       </c>
       <c r="C29" s="13">
         <f>'Table 3'!C30</f>
-        <v>7.1989999999999998</v>
+        <v>6.0430000000000001</v>
       </c>
       <c r="D29" s="13">
         <f>'Table 3'!D30</f>
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E29" s="13">
         <f>'Table 3'!E30</f>
-        <v>7.8490000000000002</v>
+        <v>6.593</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -2009,24 +2018,24 @@
       </c>
       <c r="C30" s="14">
         <f>'Table 3'!C31</f>
-        <v>220.98599999999999</v>
+        <v>185.29499999999999</v>
       </c>
       <c r="D30" s="14">
         <f>'Table 3'!D31</f>
-        <v>10.429</v>
+        <v>8.9179999999999993</v>
       </c>
       <c r="E30" s="14">
         <f>'Table 3'!E31</f>
-        <v>231.416</v>
+        <v>194.21299999999999</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
@@ -2050,11 +2059,11 @@
       </c>
       <c r="D33" s="15">
         <f>'Table 3'!D34</f>
-        <v>0.58599999999999997</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E33" s="15">
         <f>'Table 3'!E34</f>
-        <v>0.58599999999999997</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -2067,11 +2076,11 @@
       </c>
       <c r="D34" s="13">
         <f>'Table 3'!D35</f>
-        <v>13.831</v>
+        <v>10.173999999999999</v>
       </c>
       <c r="E34" s="13">
         <f>'Table 3'!E35</f>
-        <v>13.831</v>
+        <v>10.173999999999999</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -2084,11 +2093,11 @@
       </c>
       <c r="D35" s="13">
         <f>'Table 3'!D36</f>
-        <v>8.6039999999999992</v>
+        <v>6.3239999999999998</v>
       </c>
       <c r="E35" s="13">
         <f>'Table 3'!E36</f>
-        <v>8.6039999999999992</v>
+        <v>6.3239999999999998</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -2101,11 +2110,11 @@
       </c>
       <c r="D36" s="14">
         <f>'Table 3'!D37</f>
-        <v>195.6</v>
+        <v>144.06100000000001</v>
       </c>
       <c r="E36" s="14">
         <f>'Table 3'!E37</f>
-        <v>195.6</v>
+        <v>144.06100000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +2134,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,28 +2143,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2165,19 +2174,19 @@
       </c>
       <c r="C4" s="15">
         <f>'Table 1 and 2'!C29</f>
-        <v>9.3249999999999993</v>
+        <v>22.216000000000001</v>
       </c>
       <c r="D4" s="15">
         <f>'Table 1 and 2'!D29</f>
-        <v>0.86699999999999999</v>
+        <v>4.3040000000000003</v>
       </c>
       <c r="E4" s="15">
         <f>'Table 1 and 2'!E29</f>
-        <v>1.093</v>
+        <v>5.2089999999999996</v>
       </c>
       <c r="F4" s="15">
         <f>'Table 1 and 2'!F29</f>
-        <v>1.105</v>
+        <v>5.3239999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2186,19 +2195,19 @@
       </c>
       <c r="C5" s="13">
         <f>'Table 1 and 2'!C30</f>
-        <v>83.418999999999997</v>
+        <v>75.792000000000002</v>
       </c>
       <c r="D5" s="13">
         <f>'Table 1 and 2'!D30</f>
-        <v>69.932000000000002</v>
+        <v>83.757999999999996</v>
       </c>
       <c r="E5" s="13">
         <f>'Table 1 and 2'!E30</f>
-        <v>72.638000000000005</v>
+        <v>84.587999999999994</v>
       </c>
       <c r="F5" s="13">
         <f>'Table 1 and 2'!F30</f>
-        <v>72.600999999999999</v>
+        <v>84.733999999999995</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2207,19 +2216,19 @@
       </c>
       <c r="C6" s="14">
         <f>'Table 1 and 2'!C31</f>
-        <v>7.2560000000000002</v>
+        <v>1.992</v>
       </c>
       <c r="D6" s="14">
         <f>'Table 1 and 2'!D31</f>
-        <v>29.202000000000002</v>
+        <v>11.938000000000001</v>
       </c>
       <c r="E6" s="14">
         <f>'Table 1 and 2'!E31</f>
-        <v>26.268999999999998</v>
+        <v>10.202999999999999</v>
       </c>
       <c r="F6" s="14">
         <f>'Table 1 and 2'!F31</f>
-        <v>26.292999999999999</v>
+        <v>9.9420000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2232,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E552865-B5A2-4A79-A5D7-57839F356415}">
-  <dimension ref="B3:E6"/>
+  <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,45 +2269,59 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15">
-        <v>1.4179999999999999</v>
+      <c r="C4" s="1">
+        <v>1.43</v>
       </c>
       <c r="D4" s="15">
-        <v>1.45</v>
+        <v>1.4590000000000001</v>
       </c>
       <c r="E4" s="15">
-        <v>1.3149999999999999</v>
+        <v>1.3340000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13">
-        <v>1.55</v>
+      <c r="C5" s="2">
+        <v>1.524</v>
       </c>
       <c r="D5" s="13">
-        <v>1.5369999999999999</v>
+        <v>1.496</v>
       </c>
       <c r="E5" s="13">
-        <v>1.502</v>
+        <v>1.538</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
-        <v>1.966</v>
+      <c r="C6" s="3">
+        <v>1.7110000000000001</v>
       </c>
       <c r="D6" s="14">
-        <v>1.964</v>
+        <v>1.71</v>
       </c>
       <c r="E6" s="14">
-        <v>1.952</v>
+        <v>1.861</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="46">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="D7" s="46">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="E7" s="46">
+        <v>1.5129999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2328,112 +2351,112 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="E2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="I2" s="39" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="I2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="E3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="38" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="I3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="E4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="I4" s="38" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="I4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="E5" s="38" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="E5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="I5" s="38" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="I5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="E6" s="38" t="s">
+      <c r="C6" s="44"/>
+      <c r="E6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="I6" s="38" t="s">
+      <c r="G6" s="44"/>
+      <c r="I6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="38"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="27" t="s">
         <v>34</v>
       </c>
@@ -2674,21 +2697,21 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="E16" s="38" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="E16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="I16" s="38" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="I16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/Extended_Model/Results_slump.xlsx
+++ b/Extended_Model/Results_slump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manfrede\MATLAB_GIT\trunk\Extended_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072F9CA-5F41-44D9-B12F-7A300C42C9F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D8283-87F4-40F4-ADDB-D71B21307EDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="810" windowWidth="14955" windowHeight="14280" xr2:uid="{3A31E30E-C155-4713-BBA4-07880A7574EB}"/>
+    <workbookView xWindow="10515" yWindow="45" windowWidth="19695" windowHeight="14280" activeTab="1" xr2:uid="{3A31E30E-C155-4713-BBA4-07880A7574EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 and 2" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="58">
   <si>
     <t>Share of establishments</t>
   </si>
@@ -207,16 +207,20 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Observed -- just earmarked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +270,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -293,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -345,13 +378,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -432,7 +509,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,7 +532,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,9 +629,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,27 +972,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41763950-9EDA-4279-9F13-77D4025E5D2D}">
-  <dimension ref="B4:H31"/>
+  <dimension ref="A4:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="19">
         <v>2010</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="72">
+        <v>2010</v>
+      </c>
+      <c r="I4" s="72"/>
+      <c r="J4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
@@ -820,8 +1018,23 @@
       <c r="E5" s="22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -837,8 +1050,27 @@
         <f>IBGE!F9</f>
         <v>3.35</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="30">
+        <f>C6</f>
+        <v>41.03</v>
+      </c>
+      <c r="I6" s="30">
+        <f>E6</f>
+        <v>3.35</v>
+      </c>
+      <c r="J6" s="47">
+        <f>C11</f>
+        <v>41.063000000000002</v>
+      </c>
+      <c r="K6" s="16">
+        <f>E11</f>
+        <v>4.2350000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -854,8 +1086,27 @@
         <f>SUM(IBGE!F10:F11)</f>
         <v>26.42</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" ref="H7:H8" si="0">C7</f>
+        <v>51.589999999999996</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" ref="I7:I8" si="1">E7</f>
+        <v>26.42</v>
+      </c>
+      <c r="J7" s="47">
+        <f t="shared" ref="J7:J8" si="2">C12</f>
+        <v>49.158000000000001</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" ref="K7:K8" si="3">E12</f>
+        <v>26.637</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -871,16 +1122,36 @@
         <f>SUM(IBGE!F12:F15)</f>
         <v>70.240000000000009</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="31">
+        <f t="shared" si="0"/>
+        <v>7.38</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="1"/>
+        <v>70.240000000000009</v>
+      </c>
+      <c r="J8" s="48">
+        <f t="shared" si="2"/>
+        <v>9.7780000000000005</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="3"/>
+        <v>69.128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>12</v>
       </c>
@@ -894,57 +1165,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="16">
-        <v>42.441000000000003</v>
+        <v>41.063000000000002</v>
       </c>
       <c r="D11" s="16">
-        <v>5.7030000000000003</v>
+        <v>2.82</v>
       </c>
       <c r="E11" s="16">
-        <v>6.3040000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4.2350000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="16">
-        <v>49.823999999999998</v>
+        <v>49.158000000000001</v>
       </c>
       <c r="D12" s="16">
-        <v>53.698999999999998</v>
+        <v>21.95</v>
       </c>
       <c r="E12" s="16">
-        <v>56.29</v>
-      </c>
-      <c r="G12" s="32">
-        <f>C23-C6</f>
-        <v>3.8159999999999954</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>26.637</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="17">
-        <v>7.7350000000000003</v>
+        <v>9.7780000000000005</v>
       </c>
       <c r="D13" s="17">
-        <v>40.597999999999999</v>
+        <v>75.23</v>
       </c>
       <c r="E13" s="17">
-        <v>37.405999999999999</v>
-      </c>
-      <c r="G13" s="32">
-        <f>C25-C13</f>
-        <v>1.2619999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>69.128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="19">
         <v>2015</v>
@@ -952,7 +1215,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
@@ -966,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
@@ -983,7 +1246,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1000,7 +1263,7 @@
         <v>26.96</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1280,7 @@
         <v>69.27</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="18" t="s">
         <v>20</v>
@@ -1025,7 +1288,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>12</v>
       </c>
@@ -1039,84 +1302,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="16">
-        <v>44.845999999999997</v>
+        <v>40.429000000000002</v>
       </c>
       <c r="D23" s="16">
-        <v>5.1219999999999999</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="E23" s="16">
-        <v>5.5140000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.2409999999999997</v>
+      </c>
+      <c r="G23" s="90">
+        <f>C23-C11</f>
+        <v>-0.63400000000000034</v>
+      </c>
+      <c r="H23" s="90">
+        <f>E23-E11</f>
+        <v>5.9999999999993392E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="16">
-        <v>46.158000000000001</v>
+        <v>49.819000000000003</v>
       </c>
       <c r="D24" s="16">
-        <v>51.222000000000001</v>
+        <v>21.253</v>
       </c>
       <c r="E24" s="16">
-        <v>54.265999999999998</v>
-      </c>
-      <c r="G24" s="32">
-        <f>C29-C23</f>
-        <v>-22.629999999999995</v>
-      </c>
-      <c r="H24" s="32">
-        <f>C29-C11</f>
-        <v>-20.225000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>26.06</v>
+      </c>
+      <c r="G24" s="90">
+        <f t="shared" ref="G24:G25" si="4">C24-C12</f>
+        <v>0.66100000000000136</v>
+      </c>
+      <c r="H24" s="90">
+        <f t="shared" ref="H24:H25" si="5">E24-E12</f>
+        <v>-0.57700000000000173</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="17">
-        <v>8.9969999999999999</v>
+        <v>9.7520000000000007</v>
       </c>
       <c r="D25" s="17">
-        <v>43.655999999999999</v>
+        <v>75.923000000000002</v>
       </c>
       <c r="E25" s="17">
-        <v>40.22</v>
-      </c>
-      <c r="G25" s="32">
-        <f t="shared" ref="G25:G26" si="0">C30-C24</f>
-        <v>29.634</v>
-      </c>
-      <c r="H25" s="32">
-        <f t="shared" ref="H25:H26" si="1">C30-C12</f>
-        <v>25.968000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="32">
-        <f t="shared" si="0"/>
-        <v>-7.0049999999999999</v>
-      </c>
-      <c r="H26" s="32">
-        <f t="shared" si="1"/>
-        <v>-5.7430000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+        <v>69.698999999999998</v>
+      </c>
+      <c r="G25" s="90">
+        <f t="shared" si="4"/>
+        <v>-2.5999999999999801E-2</v>
+      </c>
+      <c r="H25" s="90">
+        <f t="shared" si="5"/>
+        <v>0.57099999999999795</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-    </row>
-    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+    </row>
+    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
@@ -1133,60 +1394,197 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="15">
-        <v>22.216000000000001</v>
+        <v>46.816000000000003</v>
       </c>
       <c r="D29" s="15">
-        <v>4.3040000000000003</v>
+        <v>2.67</v>
       </c>
       <c r="E29" s="15">
-        <v>5.2089999999999996</v>
+        <v>3.907</v>
       </c>
       <c r="F29" s="15">
-        <v>5.3239999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.9159999999999999</v>
+      </c>
+      <c r="H29" s="90">
+        <f>C29-C11</f>
+        <v>5.7530000000000001</v>
+      </c>
+      <c r="I29" s="90">
+        <f t="shared" ref="I29:J29" si="6">D29-D11</f>
+        <v>-0.14999999999999991</v>
+      </c>
+      <c r="J29" s="90">
+        <f t="shared" si="6"/>
+        <v>-0.32800000000000029</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="13">
-        <v>75.792000000000002</v>
+        <v>42.024999999999999</v>
       </c>
       <c r="D30" s="13">
-        <v>83.757999999999996</v>
+        <v>29.707999999999998</v>
       </c>
       <c r="E30" s="13">
-        <v>84.587999999999994</v>
+        <v>33.795000000000002</v>
       </c>
       <c r="F30" s="13">
-        <v>84.733999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33.835000000000001</v>
+      </c>
+      <c r="H30" s="90">
+        <f t="shared" ref="H30:H31" si="7">C30-C12</f>
+        <v>-7.1330000000000027</v>
+      </c>
+      <c r="I30" s="90">
+        <f t="shared" ref="I30:I31" si="8">D30-D12</f>
+        <v>7.7579999999999991</v>
+      </c>
+      <c r="J30" s="90">
+        <f t="shared" ref="J30:J31" si="9">E30-E12</f>
+        <v>7.1580000000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="14">
-        <v>1.992</v>
+        <v>11.159000000000001</v>
       </c>
       <c r="D31" s="14">
-        <v>11.938000000000001</v>
+        <v>67.620999999999995</v>
       </c>
       <c r="E31" s="14">
-        <v>10.202999999999999</v>
+        <v>62.298000000000002</v>
       </c>
       <c r="F31" s="14">
-        <v>9.9420000000000002</v>
-      </c>
+        <v>62.249000000000002</v>
+      </c>
+      <c r="H31" s="90">
+        <f t="shared" si="7"/>
+        <v>1.3810000000000002</v>
+      </c>
+      <c r="I31" s="90">
+        <f t="shared" si="8"/>
+        <v>-7.6090000000000089</v>
+      </c>
+      <c r="J31" s="90">
+        <f t="shared" si="9"/>
+        <v>-6.8299999999999983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
+      <c r="B34" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="49"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="49"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
+      <c r="B36" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="53">
+        <v>49.121000000000002</v>
+      </c>
+      <c r="D36" s="53">
+        <v>22.738</v>
+      </c>
+      <c r="E36" s="53">
+        <v>25.408000000000001</v>
+      </c>
+      <c r="F36" s="49"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="54">
+        <v>47.253</v>
+      </c>
+      <c r="D37" s="54">
+        <v>75.100999999999999</v>
+      </c>
+      <c r="E37" s="54">
+        <v>72.869</v>
+      </c>
+      <c r="F37" s="49"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="56">
+        <v>0.17</v>
+      </c>
+      <c r="D38" s="56">
+        <v>2.161</v>
+      </c>
+      <c r="E38" s="56">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="F38" s="49"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1197,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4990B-AFDD-45AD-8D8E-B2F928A96B1F}">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,103 +1619,103 @@
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="69">
         <f>(E28/E22)</f>
-        <v>0.96247654784240144</v>
-      </c>
-      <c r="D3" s="15">
+        <v>0.96033057851239667</v>
+      </c>
+      <c r="D3" s="69">
         <f>(E34/E22)</f>
-        <v>1.0619136960600373</v>
+        <v>1.1190082644628101</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="70">
         <f>(E29/E23)</f>
-        <v>1.0521040095275904</v>
-      </c>
-      <c r="D4" s="13">
-        <f t="shared" ref="D4:D6" si="0">(E35/E23)</f>
-        <v>1.0097260817784834</v>
+        <v>0.99693251533742322</v>
+      </c>
+      <c r="D4" s="70">
+        <f>(E35/E23)</f>
+        <v>1.0341805433829974</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="70">
         <f>(E30/E24)</f>
-        <v>1.0528585116576175</v>
-      </c>
-      <c r="D5" s="13">
-        <f t="shared" si="0"/>
-        <v>1.0099009900990099</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="70">
+        <f t="shared" ref="D5:D6" si="0">(E36/E24)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="70">
         <f>(E31/E25)</f>
-        <v>1.1708394875659383</v>
-      </c>
-      <c r="D6" s="13">
+        <v>1.097822577752269</v>
+      </c>
+      <c r="D6" s="70">
         <f t="shared" si="0"/>
-        <v>0.86849133383571975</v>
+        <v>0.82003084980449836</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="70">
         <f>I10/H10</f>
-        <v>1.4306531355711685</v>
-      </c>
-      <c r="D7" s="36">
+        <v>1.3228621291448517</v>
+      </c>
+      <c r="D7" s="70">
         <f>J10/H10</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="70">
         <f>(E29/E30)/(E23/E24)</f>
-        <v>0.99928337747031248</v>
-      </c>
-      <c r="D8" s="13">
+        <v>0.99693251533742322</v>
+      </c>
+      <c r="D8" s="70">
         <f>(E35/E36)/(E23/E24)</f>
-        <v>0.99982680646692956</v>
+        <v>1.0341805433829974</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="71">
         <f>(E31/E29)/(E25/E23)</f>
-        <v>1.1128552661743603</v>
-      </c>
-      <c r="D9" s="14">
+        <v>1.1012004933761221</v>
+      </c>
+      <c r="D9" s="71">
         <f>(E37/E35)/(E25/E23)</f>
-        <v>0.86012568112135968</v>
+        <v>0.79292813527706163</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9">
-        <v>0.97599999999999998</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I9">
-        <v>0.51400000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J9">
-        <v>-107.129</v>
+        <v>-15.532</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1325,10 +1723,10 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>3.843</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="I10">
-        <v>5.4980000000000002</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1346,82 +1744,82 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <f>(E28-E22)/E22</f>
-        <v>-3.752345215759853E-2</v>
-      </c>
-      <c r="D13" s="33">
+        <v>-3.9669421487603343E-2</v>
+      </c>
+      <c r="D13" s="32">
         <f>(E34-E22)/E22</f>
-        <v>6.1913696060037368E-2</v>
+        <v>0.11900826446281003</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <f t="shared" ref="C14:C16" si="1">(E29-E23)/E23</f>
-        <v>5.2104009527590346E-2</v>
-      </c>
-      <c r="D14" s="34">
+        <v>-3.0674846625767384E-3</v>
+      </c>
+      <c r="D14" s="33">
         <f t="shared" ref="D14:D16" si="2">(E35-E23)/E23</f>
-        <v>9.7260817784834228E-3</v>
+        <v>3.4180543382997301E-2</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <f t="shared" si="1"/>
-        <v>5.2858511657617444E-2</v>
-      </c>
-      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33">
         <f t="shared" si="2"/>
-        <v>9.9009900990099462E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <f t="shared" si="1"/>
-        <v>0.17083948756593817</v>
-      </c>
-      <c r="D16" s="34">
+        <v>9.7822577752268908E-2</v>
+      </c>
+      <c r="D16" s="33">
         <f t="shared" si="2"/>
-        <v>-0.13150866616428028</v>
+        <v>-0.17996915019550166</v>
       </c>
       <c r="G16">
         <f>(E29-E23)/E23</f>
-        <v>5.2104009527590346E-2</v>
+        <v>-3.0674846625767384E-3</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <f>(I10-H10)/H10</f>
-        <v>0.43065313557116841</v>
-      </c>
-      <c r="D17" s="35">
+        <v>0.32286212914485179</v>
+      </c>
+      <c r="D17" s="34">
         <f>(J10-H10)/H10</f>
         <v>-1</v>
       </c>
       <c r="G17">
         <f>(E35-E23)/E23</f>
-        <v>9.7260817784834228E-3</v>
+        <v>3.4180543382997301E-2</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
     </row>
     <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -1440,13 +1838,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="15">
-        <v>0.51</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D22" s="15">
-        <v>0.52200000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E22" s="15">
-        <v>0.53300000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1454,13 +1852,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="13">
-        <v>8.593</v>
+        <v>2.1960000000000002</v>
       </c>
       <c r="D23" s="13">
-        <v>1.482</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>10.076000000000001</v>
+        <v>2.282</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1468,17 +1866,17 @@
         <v>8</v>
       </c>
       <c r="C24" s="13">
-        <v>5.3390000000000004</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D24" s="13">
-        <v>0.92300000000000004</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E24" s="13">
-        <v>6.2619999999999996</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f>E25/E24</f>
-        <v>26.48914084956883</v>
+        <v>27.876999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1486,22 +1884,22 @@
         <v>9</v>
       </c>
       <c r="C25" s="14">
-        <v>150.75299999999999</v>
+        <v>27.331</v>
       </c>
       <c r="D25" s="14">
-        <v>15.122999999999999</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E25" s="14">
-        <v>165.875</v>
+        <v>27.876999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
     </row>
     <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -1520,13 +1918,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="15">
-        <v>0.5</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D28" s="15">
-        <v>0.49199999999999999</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="E28" s="15">
-        <v>0.51300000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1534,13 +1932,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="13">
-        <v>9.7240000000000002</v>
+        <v>2.2509999999999999</v>
       </c>
       <c r="D29" s="13">
-        <v>0.877</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E29" s="13">
-        <v>10.601000000000001</v>
+        <v>2.2749999999999999</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1548,17 +1946,17 @@
         <v>8</v>
       </c>
       <c r="C30" s="13">
-        <v>6.0430000000000001</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="D30" s="13">
-        <v>0.55000000000000004</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E30" s="13">
-        <v>6.593</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <f>E31/E30</f>
-        <v>29.457454876384041</v>
+        <v>30.603999999999999</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1566,22 +1964,22 @@
         <v>9</v>
       </c>
       <c r="C31" s="14">
-        <v>185.29499999999999</v>
+        <v>30.459</v>
       </c>
       <c r="D31" s="14">
-        <v>8.9179999999999993</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E31" s="14">
-        <v>194.21299999999999</v>
+        <v>30.603999999999999</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
     </row>
     <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
@@ -1603,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="15">
-        <v>0.56599999999999995</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E34" s="15">
-        <v>0.56599999999999995</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1617,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="13">
-        <v>10.173999999999999</v>
+        <v>2.36</v>
       </c>
       <c r="E35" s="13">
-        <v>10.173999999999999</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1631,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="13">
-        <v>6.3239999999999998</v>
+        <v>1</v>
       </c>
       <c r="E36" s="13">
-        <v>6.3239999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1645,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="14">
-        <v>144.06100000000001</v>
+        <v>22.86</v>
       </c>
       <c r="E37" s="14">
-        <v>144.06100000000001</v>
+        <v>22.86</v>
       </c>
     </row>
   </sheetData>
@@ -1664,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331CC5A-D4E1-4F50-B3DB-DD02D3A3C9B7}">
-  <dimension ref="B3:E36"/>
+  <dimension ref="B3:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,12 +2076,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
@@ -1701,17 +2099,17 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15">
-        <f>(C27/C21)*100</f>
-        <v>98.039215686274503</v>
-      </c>
-      <c r="D5" s="15">
-        <f t="shared" ref="D5:E5" si="0">(D27/D21)*100</f>
-        <v>94.252873563218387</v>
-      </c>
-      <c r="E5" s="15">
-        <f t="shared" si="0"/>
-        <v>96.24765478424014</v>
+      <c r="C5" s="15" t="e">
+        <f>(#REF!/#REF!)*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="15" t="e">
+        <f>(#REF!/#REF!)*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="15" t="e">
+        <f>(#REF!/#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1719,16 +2117,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="13">
-        <f t="shared" ref="C6:E6" si="1">(C28/C22)*100</f>
-        <v>113.16187594553706</v>
+        <f>(C26/C21)*100</f>
+        <v>102.81995236093596</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" si="1"/>
-        <v>59.176788124156545</v>
+        <f>(D26/D21)*100</f>
+        <v>27.99284436493739</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" si="1"/>
-        <v>105.21040095275904</v>
+        <f>(E26/E21)*100</f>
+        <v>99.693251533742327</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1736,16 +2134,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="13">
-        <f>(C29/C23)*100</f>
-        <v>113.18598988574639</v>
+        <f>(C27/C22)*100</f>
+        <v>102.58799171842649</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" ref="C7:E7" si="2">(D29/D23)*100</f>
-        <v>59.588299024918747</v>
+        <f>(D27/D22)*100</f>
+        <v>27.27272727272727</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="2"/>
-        <v>105.28585116576174</v>
+        <f>(E27/E22)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1753,25 +2151,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="14">
-        <f t="shared" ref="C8:E8" si="3">(C30/C24)*100</f>
-        <v>122.91297685618197</v>
+        <f>(C28/C23)*100</f>
+        <v>101.51447210086089</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" si="3"/>
-        <v>58.969781128083056</v>
+        <f>(D28/D23)*100</f>
+        <v>24.023578042660514</v>
       </c>
       <c r="E8" s="14">
-        <f t="shared" si="3"/>
-        <v>117.08394875659383</v>
+        <f>(E28/E23)*100</f>
+        <v>109.7822577752269</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -1789,17 +2187,17 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15">
-        <f>(C33/C21)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" ref="D11:E11" si="4">(D33/D21)*100</f>
-        <v>108.42911877394634</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="4"/>
-        <v>106.19136960600373</v>
+      <c r="C11" s="15" t="e">
+        <f>(C31/#REF!)*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="15" t="e">
+        <f>(D31/#REF!)*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="15" t="e">
+        <f>(E31/#REF!)*100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1807,16 +2205,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="13">
-        <f t="shared" ref="C12:E12" si="5">(C34/C22)*100</f>
+        <f>(C32/C21)*100</f>
         <v>0</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="5"/>
-        <v>686.50472334682865</v>
+        <f>(D32/D21)*100</f>
+        <v>6262.2325581395353</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" si="5"/>
-        <v>100.97260817784834</v>
+        <f>(E32/E21)*100</f>
+        <v>103.41805433829974</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1824,16 +2222,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="13">
-        <f t="shared" ref="C13:E13" si="6">(C35/C23)*100</f>
+        <f>(C33/C22)*100</f>
         <v>0</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="6"/>
-        <v>685.15709642470199</v>
+        <f>(D33/D22)*100</f>
+        <v>3030.30303030303</v>
       </c>
       <c r="E13" s="13">
-        <f t="shared" si="6"/>
-        <v>100.99009900990099</v>
+        <f>(E33/E22)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1841,289 +2239,255 @@
         <v>9</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" ref="C14:E14" si="7">(C36/C24)*100</f>
+        <f>(C34/C23)*100</f>
         <v>0</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" si="7"/>
-        <v>952.59538451365484</v>
+        <f>(D34/D23)*100</f>
+        <v>116715.79120879121</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="7"/>
-        <v>86.849133383571981</v>
+        <f>(E34/E23)*100</f>
+        <v>82.003084980449842</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="88">
+        <f>'Table 3'!C23/E21</f>
+        <v>0.96231375985977219</v>
+      </c>
+      <c r="D21" s="88">
+        <f>'Table 3'!D23/E21</f>
+        <v>3.7686240140227867E-2</v>
+      </c>
+      <c r="E21" s="79">
+        <f>'Table 3'!E23</f>
+        <v>2.282</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="88">
+        <f>'Table 3'!C24/E22</f>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D22" s="88">
+        <f>'Table 3'!D24/E22</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E22" s="79">
+        <f>'Table 3'!E24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="89">
+        <f>'Table 3'!C25/E23</f>
+        <v>0.98041396133012881</v>
+      </c>
+      <c r="D23" s="89">
+        <f>'Table 3'!D25/E23</f>
+        <v>1.9586038669871221E-2</v>
+      </c>
+      <c r="E23" s="81">
+        <f>'Table 3'!E25</f>
+        <v>27.876999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="86"/>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="82"/>
+      <c r="C25" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="88">
+        <f>'Table 3'!C29/E26</f>
+        <v>0.98945054945054944</v>
+      </c>
+      <c r="D26" s="88">
+        <f>'Table 3'!D29/E26</f>
+        <v>1.0549450549450549E-2</v>
+      </c>
+      <c r="E26" s="79">
+        <f>'Table 3'!E29</f>
+        <v>2.2749999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="88">
+        <f>'Table 3'!C30/E27</f>
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D27" s="88">
+        <f>'Table 3'!D30/E27</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E27" s="79">
+        <f>'Table 3'!E30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="89">
+        <f>'Table 3'!C31/E28</f>
+        <v>0.99526205724741867</v>
+      </c>
+      <c r="D28" s="89">
+        <f>'Table 3'!D31/E28</f>
+        <v>4.7052672853221799E-3</v>
+      </c>
+      <c r="E28" s="81">
+        <f>'Table 3'!E31</f>
+        <v>30.603999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+    </row>
+    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="15">
-        <f>'Table 3'!C22</f>
-        <v>0.51</v>
-      </c>
-      <c r="D21" s="15">
-        <f>'Table 3'!D22</f>
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E21" s="15">
-        <f>'Table 3'!E22</f>
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13">
-        <f>'Table 3'!C23</f>
-        <v>8.593</v>
-      </c>
-      <c r="D22" s="13">
-        <f>'Table 3'!D23</f>
-        <v>1.482</v>
-      </c>
-      <c r="E22" s="13">
-        <f>'Table 3'!E23</f>
-        <v>10.076000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="13">
-        <f>'Table 3'!C24</f>
-        <v>5.3390000000000004</v>
-      </c>
-      <c r="D23" s="13">
-        <f>'Table 3'!D24</f>
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="E23" s="13">
-        <f>'Table 3'!E24</f>
-        <v>6.2619999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14">
-        <f>'Table 3'!C25</f>
-        <v>150.75299999999999</v>
-      </c>
-      <c r="D24" s="14">
-        <f>'Table 3'!D25</f>
-        <v>15.122999999999999</v>
-      </c>
-      <c r="E24" s="14">
-        <f>'Table 3'!E25</f>
-        <v>165.875</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="15">
-        <f>'Table 3'!C28</f>
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="15">
-        <f>'Table 3'!D28</f>
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="E27" s="15">
-        <f>'Table 3'!E28</f>
-        <v>0.51300000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="13">
-        <f>'Table 3'!C29</f>
-        <v>9.7240000000000002</v>
-      </c>
-      <c r="D28" s="13">
-        <f>'Table 3'!D29</f>
-        <v>0.877</v>
-      </c>
-      <c r="E28" s="13">
-        <f>'Table 3'!E29</f>
-        <v>10.601000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="13">
-        <f>'Table 3'!C30</f>
-        <v>6.0430000000000001</v>
-      </c>
-      <c r="D29" s="13">
-        <f>'Table 3'!D30</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E29" s="13">
-        <f>'Table 3'!E30</f>
-        <v>6.593</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="14">
-        <f>'Table 3'!C31</f>
-        <v>185.29499999999999</v>
-      </c>
-      <c r="D30" s="14">
-        <f>'Table 3'!D31</f>
-        <v>8.9179999999999993</v>
-      </c>
-      <c r="E30" s="14">
-        <f>'Table 3'!E31</f>
-        <v>194.21299999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-    </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="C31" s="60">
         <f>'Table 3'!C34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D31" s="60">
         <f>'Table 3'!D34</f>
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="E33" s="15">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E31" s="60">
         <f>'Table 3'!E34</f>
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C32" s="62">
         <f>'Table 3'!C35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D32" s="62">
         <f>'Table 3'!D35</f>
-        <v>10.173999999999999</v>
-      </c>
-      <c r="E34" s="13">
+        <v>2.36</v>
+      </c>
+      <c r="E32" s="62">
         <f>'Table 3'!E35</f>
-        <v>10.173999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C33" s="62">
         <f>'Table 3'!C36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D33" s="62">
         <f>'Table 3'!D36</f>
-        <v>6.3239999999999998</v>
-      </c>
-      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="62">
         <f>'Table 3'!E36</f>
-        <v>6.3239999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C34" s="64">
         <f>'Table 3'!C37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D34" s="64">
         <f>'Table 3'!D37</f>
-        <v>144.06100000000001</v>
-      </c>
-      <c r="E36" s="14">
+        <v>22.86</v>
+      </c>
+      <c r="E34" s="64">
         <f>'Table 3'!E37</f>
-        <v>144.06100000000001</v>
+        <v>22.86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2134,7 +2498,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,92 +2507,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="60">
         <f>'Table 1 and 2'!C29</f>
-        <v>22.216000000000001</v>
-      </c>
-      <c r="D4" s="15">
+        <v>46.816000000000003</v>
+      </c>
+      <c r="D4" s="60">
         <f>'Table 1 and 2'!D29</f>
-        <v>4.3040000000000003</v>
-      </c>
-      <c r="E4" s="15">
+        <v>2.67</v>
+      </c>
+      <c r="E4" s="60">
         <f>'Table 1 and 2'!E29</f>
-        <v>5.2089999999999996</v>
-      </c>
-      <c r="F4" s="15">
+        <v>3.907</v>
+      </c>
+      <c r="F4" s="60">
         <f>'Table 1 and 2'!F29</f>
-        <v>5.3239999999999998</v>
+        <v>3.9159999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="62">
         <f>'Table 1 and 2'!C30</f>
-        <v>75.792000000000002</v>
-      </c>
-      <c r="D5" s="13">
+        <v>42.024999999999999</v>
+      </c>
+      <c r="D5" s="62">
         <f>'Table 1 and 2'!D30</f>
-        <v>83.757999999999996</v>
-      </c>
-      <c r="E5" s="13">
+        <v>29.707999999999998</v>
+      </c>
+      <c r="E5" s="62">
         <f>'Table 1 and 2'!E30</f>
-        <v>84.587999999999994</v>
-      </c>
-      <c r="F5" s="13">
+        <v>33.795000000000002</v>
+      </c>
+      <c r="F5" s="62">
         <f>'Table 1 and 2'!F30</f>
-        <v>84.733999999999995</v>
+        <v>33.835000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="64">
         <f>'Table 1 and 2'!C31</f>
-        <v>1.992</v>
-      </c>
-      <c r="D6" s="14">
+        <v>11.159000000000001</v>
+      </c>
+      <c r="D6" s="64">
         <f>'Table 1 and 2'!D31</f>
-        <v>11.938000000000001</v>
-      </c>
-      <c r="E6" s="14">
+        <v>67.620999999999995</v>
+      </c>
+      <c r="E6" s="64">
         <f>'Table 1 and 2'!E31</f>
-        <v>10.202999999999999</v>
-      </c>
-      <c r="F6" s="14">
+        <v>62.298000000000002</v>
+      </c>
+      <c r="F6" s="64">
         <f>'Table 1 and 2'!F31</f>
-        <v>9.9420000000000002</v>
+        <v>62.249000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2241,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E552865-B5A2-4A79-A5D7-57839F356415}">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I22"/>
+      <selection activeCell="B4" sqref="B4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,59 +2633,130 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.43</v>
+      <c r="C4" s="57">
+        <v>1.546</v>
       </c>
       <c r="D4" s="15">
-        <v>1.4590000000000001</v>
+        <v>1.5429999999999999</v>
       </c>
       <c r="E4" s="15">
-        <v>1.3340000000000001</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.524</v>
+      <c r="C5" s="35">
+        <v>1.76</v>
       </c>
       <c r="D5" s="13">
-        <v>1.496</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="E5" s="13">
-        <v>1.538</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.7110000000000001</v>
+      <c r="C6" s="58">
+        <v>2.3450000000000002</v>
       </c>
       <c r="D6" s="14">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="E6" s="14">
-        <v>1.861</v>
+        <v>2.4849999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="46">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="D7" s="46">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="E7" s="46">
-        <v>1.5129999999999999</v>
+      <c r="C7" s="59">
+        <v>1.774</v>
+      </c>
+      <c r="D7" s="59">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="E7" s="59">
+        <v>1.9179999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1.5409999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1.63</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1.663</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2.1539999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="45">
+        <v>1.476</v>
+      </c>
+      <c r="D19" s="45">
+        <v>1.462</v>
+      </c>
+      <c r="E19" s="45">
+        <v>1.4630000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2351,112 +2786,112 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="E2" s="45" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="E2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="I2" s="45" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="I2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="E3" s="44" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="E3" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="I3" s="44" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="I3" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="E4" s="44" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="I4" s="44" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="I4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="E5" s="44" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="E5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="I5" s="44" t="s">
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="I5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="76"/>
+      <c r="E6" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="44" t="s">
+      <c r="G6" s="76"/>
+      <c r="I6" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="27" t="s">
         <v>34</v>
       </c>
@@ -2697,31 +3132,24 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="E16" s="44" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="I16" s="44" t="s">
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="I16" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
@@ -2736,6 +3164,13 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
